--- a/AfDD_2023_Annex_Table_Tab03.xlsx
+++ b/AfDD_2023_Annex_Table_Tab03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -8962,10 +8962,10 @@
         <v>1.5793939934362999</v>
       </c>
       <c r="D63" s="33">
-        <v>1.49329737858901</v>
+        <v>1.49329737858899</v>
       </c>
       <c r="E63" s="33">
-        <v>1.41670162532142</v>
+        <v>1.41670162532144</v>
       </c>
       <c r="F63" s="33">
         <v>1.35249082717699</v>
@@ -11459,7 +11459,7 @@
         <v>139</v>
       </c>
       <c r="C83" s="43">
-        <v>1.5745149659797599</v>
+        <v>1.57451496597973</v>
       </c>
       <c r="D83" s="43">
         <v>1.4944354485195299</v>
@@ -12272,19 +12272,19 @@
         <v>0.71402970167900004</v>
       </c>
       <c r="X89" s="40">
-        <v>0.73433419872104</v>
+        <v>0.73433419872100003</v>
       </c>
       <c r="Y89" s="40">
-        <v>0.74914445378497996</v>
+        <v>0.74914445378502004</v>
       </c>
       <c r="Z89" s="40">
         <v>0.75402055348751995</v>
       </c>
       <c r="AA89" s="40">
-        <v>0.74523883644899003</v>
+        <v>0.74523883644897004</v>
       </c>
       <c r="AB89" s="40">
-        <v>0.72527795082825997</v>
+        <v>0.72527795082827995</v>
       </c>
       <c r="AC89" s="40">
         <v>0.70365740266240995</v>

--- a/AfDD_2023_Annex_Table_Tab03.xlsx
+++ b/AfDD_2023_Annex_Table_Tab03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E9FB756-31F7-4934-BAB0-A51DFE752DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA173F6-4693-4AA3-AE6C-0523E6CD9CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{390C8F6F-6176-481B-83E9-0B25C620B6EA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4672048F-92E1-4491-B8AD-84F1D4CB4790}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
   <si>
-    <t>Table 3: Annual population growth rate, 1990-2027</t>
+    <t>Table 3: Annual population growth rate, 1990-2028</t>
   </si>
   <si>
     <t>ISO3 Code</t>
@@ -48,7 +48,7 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Average annual projected growth, 2022-27</t>
+    <t>Average annual projected growth, 2023-28</t>
   </si>
   <si>
     <t>AGO</t>
@@ -516,7 +516,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Figures up to 2021 are estimates. For 2022 onwards, they are projections.</t>
@@ -1295,11 +1295,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54457A-9868-428D-814B-F3429B1D910A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1566765-651A-49A2-A588-2E3CAEBB37B8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO114"/>
+  <dimension ref="A1:AP114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1308,11 +1308,11 @@
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.6328125" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="40" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.1796875" customWidth="1"/>
+    <col min="4" max="41" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1354,9 +1354,10 @@
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
-      <c r="AO1" s="4"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="4"/>
     </row>
-    <row r="2" spans="1:41" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:42" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1477,11 +1478,14 @@
       <c r="AN2" s="7">
         <v>2027</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AO2" s="7">
+        <v>2028</v>
+      </c>
+      <c r="AP2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1602,11 +1606,14 @@
       <c r="AN3" s="11">
         <v>2.9308900060315102</v>
       </c>
-      <c r="AO3" s="12">
-        <v>3.0086909451915398</v>
+      <c r="AO3" s="11">
+        <v>2.89259070649865</v>
+      </c>
+      <c r="AP3" s="12">
+        <v>2.9717274785394001</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1727,11 +1734,14 @@
       <c r="AN4" s="14">
         <v>1.50889071018778</v>
       </c>
-      <c r="AO4" s="15">
-        <v>1.6077210483874</v>
+      <c r="AO4" s="14">
+        <v>1.46501282715565</v>
+      </c>
+      <c r="AP4" s="15">
+        <v>1.55813392781803</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -1852,11 +1862,14 @@
       <c r="AN5" s="17">
         <v>1.07309223817182</v>
       </c>
-      <c r="AO5" s="18">
-        <v>0.97299960474584002</v>
+      <c r="AO5" s="17">
+        <v>1.1026893314727999</v>
+      </c>
+      <c r="AP5" s="18">
+        <v>1.04126686049189</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1977,11 +1990,14 @@
       <c r="AN6" s="17">
         <v>1.01706100828385</v>
       </c>
-      <c r="AO6" s="18">
-        <v>1.0605553609352101</v>
+      <c r="AO6" s="17">
+        <v>0.99164033701951004</v>
+      </c>
+      <c r="AP6" s="18">
+        <v>1.04644391076207</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
@@ -2102,11 +2118,14 @@
       <c r="AN7" s="17">
         <v>2.5446491641067301</v>
       </c>
-      <c r="AO7" s="18">
-        <v>2.5793736385696802</v>
+      <c r="AO7" s="17">
+        <v>2.5123843261929402</v>
+      </c>
+      <c r="AP7" s="18">
+        <v>2.5658697345564399</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -2227,11 +2246,14 @@
       <c r="AN8" s="17">
         <v>2.7302209399897102</v>
       </c>
-      <c r="AO8" s="18">
-        <v>2.7891629281688601</v>
+      <c r="AO8" s="17">
+        <v>2.69195808192215</v>
+      </c>
+      <c r="AP8" s="18">
+        <v>2.7647041212568699</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
@@ -2352,11 +2374,14 @@
       <c r="AN9" s="17">
         <v>1.6130931527468699</v>
       </c>
-      <c r="AO9" s="18">
-        <v>1.5967643048681499</v>
+      <c r="AO9" s="17">
+        <v>1.5820871457938701</v>
+      </c>
+      <c r="AP9" s="18">
+        <v>1.6236875231584</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2477,11 +2502,14 @@
       <c r="AN10" s="17">
         <v>0.98527664833017004</v>
       </c>
-      <c r="AO10" s="18">
-        <v>0.99032026938065998</v>
+      <c r="AO10" s="17">
+        <v>0.94659291332992002</v>
+      </c>
+      <c r="AP10" s="18">
+        <v>1.0058088885441601</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
@@ -2602,11 +2630,14 @@
       <c r="AN11" s="14">
         <v>2.6392641066587799</v>
       </c>
-      <c r="AO11" s="15">
-        <v>2.7037255527436699</v>
+      <c r="AO11" s="14">
+        <v>2.60193042516324</v>
+      </c>
+      <c r="AP11" s="15">
+        <v>2.67253458666625</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2727,11 +2758,14 @@
       <c r="AN12" s="17">
         <v>2.0238115111153001</v>
       </c>
-      <c r="AO12" s="18">
-        <v>2.08054168202003</v>
+      <c r="AO12" s="17">
+        <v>1.9943621069375499</v>
+      </c>
+      <c r="AP12" s="18">
+        <v>2.0567872786027501</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
@@ -2852,11 +2886,14 @@
       <c r="AN13" s="21">
         <v>2.1043253135639302</v>
       </c>
-      <c r="AO13" s="22">
-        <v>2.1333316193747498</v>
+      <c r="AO13" s="21">
+        <v>2.0743143349136099</v>
+      </c>
+      <c r="AP13" s="22">
+        <v>2.1270602197931399</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
@@ -2977,11 +3014,14 @@
       <c r="AN14" s="17">
         <v>2.5524230951809801</v>
       </c>
-      <c r="AO14" s="18">
-        <v>2.6256990107526499</v>
+      <c r="AO14" s="17">
+        <v>2.5259639943046501</v>
+      </c>
+      <c r="AP14" s="18">
+        <v>2.5893985687769399</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
@@ -3102,11 +3142,14 @@
       <c r="AN15" s="17">
         <v>2.4968168640186099</v>
       </c>
-      <c r="AO15" s="18">
-        <v>2.5671735375668798</v>
+      <c r="AO15" s="17">
+        <v>2.4619236794633399</v>
+      </c>
+      <c r="AP15" s="18">
+        <v>2.5345556044657398</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
@@ -3227,11 +3270,14 @@
       <c r="AN16" s="17">
         <v>3.1248697699202399</v>
       </c>
-      <c r="AO16" s="18">
-        <v>3.0498039152032002</v>
+      <c r="AO16" s="17">
+        <v>3.1202566427631</v>
+      </c>
+      <c r="AP16" s="18">
+        <v>3.0889374531711602</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
@@ -3352,11 +3398,14 @@
       <c r="AN17" s="24">
         <v>2.9844689075100299</v>
       </c>
-      <c r="AO17" s="25">
-        <v>3.06440529345871</v>
+      <c r="AO17" s="24">
+        <v>2.9461734959618</v>
+      </c>
+      <c r="AP17" s="25">
+        <v>3.0270585669090999</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
@@ -3477,11 +3526,14 @@
       <c r="AN18" s="24">
         <v>2.1997760009612199</v>
       </c>
-      <c r="AO18" s="25">
-        <v>2.2363720683829</v>
+      <c r="AO18" s="24">
+        <v>2.1906515405715599</v>
+      </c>
+      <c r="AP18" s="25">
+        <v>2.2174347151837002</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
@@ -3602,11 +3654,14 @@
       <c r="AN19" s="14">
         <v>3.2131872734057398</v>
       </c>
-      <c r="AO19" s="15">
-        <v>3.2582181756140498</v>
+      <c r="AO19" s="14">
+        <v>3.1862099993069402</v>
+      </c>
+      <c r="AP19" s="15">
+        <v>3.2384354190141198</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
@@ -3727,11 +3782,14 @@
       <c r="AN20" s="24">
         <v>2.2172967114954898</v>
       </c>
-      <c r="AO20" s="25">
-        <v>2.3040465265016499</v>
+      <c r="AO20" s="24">
+        <v>2.1711171255647499</v>
+      </c>
+      <c r="AP20" s="25">
+        <v>2.26345733651161</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
@@ -3852,11 +3910,14 @@
       <c r="AN21" s="24">
         <v>1.87282371700999</v>
       </c>
-      <c r="AO21" s="25">
-        <v>1.9375690202554401</v>
+      <c r="AO21" s="24">
+        <v>1.8334500821044299</v>
+      </c>
+      <c r="AP21" s="25">
+        <v>1.9059793676694099</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
@@ -3977,11 +4038,14 @@
       <c r="AN22" s="17">
         <v>1.93312817506839</v>
       </c>
-      <c r="AO22" s="18">
-        <v>1.94851914517269</v>
+      <c r="AO22" s="17">
+        <v>1.9208267941360999</v>
+      </c>
+      <c r="AP22" s="18">
+        <v>1.9389824171407899</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19" t="s">
         <v>24</v>
       </c>
@@ -4102,11 +4166,14 @@
       <c r="AN23" s="21">
         <v>2.9625786709478201</v>
       </c>
-      <c r="AO23" s="22">
-        <v>3.0114316676684898</v>
+      <c r="AO23" s="21">
+        <v>2.9354403904974</v>
+      </c>
+      <c r="AP23" s="22">
+        <v>2.9893280141633798</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>45</v>
       </c>
@@ -4227,11 +4294,14 @@
       <c r="AN24" s="17">
         <v>1.7070073335537099</v>
       </c>
-      <c r="AO24" s="18">
-        <v>1.77697665855836</v>
+      <c r="AO24" s="17">
+        <v>1.67025968199079</v>
+      </c>
+      <c r="AP24" s="18">
+        <v>1.7453108992042199</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>47</v>
       </c>
@@ -4352,11 +4422,14 @@
       <c r="AN25" s="17">
         <v>1.3416057383264901</v>
       </c>
-      <c r="AO25" s="18">
-        <v>1.37515522346914</v>
+      <c r="AO25" s="17">
+        <v>1.3177619545607899</v>
+      </c>
+      <c r="AP25" s="18">
+        <v>1.36023826950213</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>49</v>
       </c>
@@ -4477,11 +4550,14 @@
       <c r="AN26" s="17">
         <v>1.9350987857511099</v>
       </c>
-      <c r="AO26" s="18">
-        <v>1.86507516625443</v>
+      <c r="AO26" s="17">
+        <v>1.95808186726947</v>
+      </c>
+      <c r="AP26" s="18">
+        <v>1.9045328722233199</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>51</v>
       </c>
@@ -4602,11 +4678,14 @@
       <c r="AN27" s="17">
         <v>2.3935964348869501</v>
       </c>
-      <c r="AO27" s="18">
-        <v>2.4774749135566498</v>
+      <c r="AO27" s="17">
+        <v>2.3494879623416498</v>
+      </c>
+      <c r="AP27" s="18">
+        <v>2.4372159960398099</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>53</v>
       </c>
@@ -4727,11 +4806,14 @@
       <c r="AN28" s="17">
         <v>1.96220398390088</v>
       </c>
-      <c r="AO28" s="18">
-        <v>1.98416766457521</v>
+      <c r="AO28" s="17">
+        <v>1.9436340227792801</v>
+      </c>
+      <c r="AP28" s="18">
+        <v>1.97565134677762</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>55</v>
       </c>
@@ -4852,11 +4934,14 @@
       <c r="AN29" s="17">
         <v>2.3185868019585798</v>
       </c>
-      <c r="AO29" s="18">
-        <v>2.3751033787701399</v>
+      <c r="AO29" s="17">
+        <v>2.2902152104265601</v>
+      </c>
+      <c r="AP29" s="18">
+        <v>2.35088977342917</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>57</v>
       </c>
@@ -4977,11 +5062,14 @@
       <c r="AN30" s="17">
         <v>5.413284322406E-2</v>
       </c>
-      <c r="AO30" s="18">
-        <v>8.3525297046119995E-2</v>
+      <c r="AO30" s="17">
+        <v>3.586467980428E-2</v>
+      </c>
+      <c r="AP30" s="18">
+        <v>7.3951119308989996E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
@@ -5102,11 +5190,14 @@
       <c r="AN31" s="17">
         <v>2.1642338339751501</v>
       </c>
-      <c r="AO31" s="18">
-        <v>2.2366251069214198</v>
+      <c r="AO31" s="17">
+        <v>2.1301040301952701</v>
+      </c>
+      <c r="AP31" s="18">
+        <v>2.2010187010445699</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>61</v>
       </c>
@@ -5227,11 +5318,14 @@
       <c r="AN32" s="17">
         <v>0.47167655420165999</v>
       </c>
-      <c r="AO32" s="18">
-        <v>0.51649150657739995</v>
+      <c r="AO32" s="17">
+        <v>0.44671694885955998</v>
+      </c>
+      <c r="AP32" s="18">
+        <v>0.50463404892658004</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>63</v>
       </c>
@@ -5352,11 +5446,14 @@
       <c r="AN33" s="17">
         <v>3.0039937716390002</v>
       </c>
-      <c r="AO33" s="18">
-        <v>3.0641986569631001</v>
+      <c r="AO33" s="17">
+        <v>2.9669867964191101</v>
+      </c>
+      <c r="AP33" s="18">
+        <v>3.0372006158139402</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>65</v>
       </c>
@@ -5477,11 +5574,14 @@
       <c r="AN34" s="14">
         <v>1.80338839290533</v>
       </c>
-      <c r="AO34" s="15">
-        <v>1.7246561736602899</v>
+      <c r="AO34" s="14">
+        <v>1.83974240661979</v>
+      </c>
+      <c r="AP34" s="15">
+        <v>1.7707433355601301</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>68</v>
       </c>
@@ -5602,11 +5702,14 @@
       <c r="AN35" s="17">
         <v>2.45109632974347</v>
       </c>
-      <c r="AO35" s="18">
-        <v>2.5450187412591401</v>
+      <c r="AO35" s="17">
+        <v>2.4021914706760898</v>
+      </c>
+      <c r="AP35" s="18">
+        <v>2.4985976007434898</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
@@ -5727,11 +5830,14 @@
       <c r="AN36" s="17">
         <v>2.8093873089655199</v>
       </c>
-      <c r="AO36" s="18">
-        <v>2.8902856345769798</v>
+      <c r="AO36" s="17">
+        <v>2.7719137427934899</v>
+      </c>
+      <c r="AP36" s="18">
+        <v>2.8521707829067799</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>72</v>
       </c>
@@ -5852,11 +5958,14 @@
       <c r="AN37" s="17">
         <v>2.6705075222556802</v>
       </c>
-      <c r="AO37" s="18">
-        <v>2.73502785055459</v>
+      <c r="AO37" s="17">
+        <v>2.6376090546270201</v>
+      </c>
+      <c r="AP37" s="18">
+        <v>2.6984225584235402</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="19" t="s">
         <v>24</v>
       </c>
@@ -5977,11 +6086,14 @@
       <c r="AN38" s="21">
         <v>2.4268941460360698</v>
       </c>
-      <c r="AO38" s="22">
-        <v>2.4897160227762098</v>
+      <c r="AO38" s="21">
+        <v>2.3933941363000599</v>
+      </c>
+      <c r="AP38" s="22">
+        <v>2.4597556373820999</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>75</v>
       </c>
@@ -6102,11 +6214,14 @@
       <c r="AN39" s="24">
         <v>1.2451510722339301</v>
       </c>
-      <c r="AO39" s="25">
-        <v>1.3976010105871901</v>
+      <c r="AO39" s="24">
+        <v>1.18476190571171</v>
+      </c>
+      <c r="AP39" s="25">
+        <v>1.32133393907923</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>77</v>
       </c>
@@ -6227,11 +6342,14 @@
       <c r="AN40" s="17">
         <v>1.5068796620970799</v>
       </c>
-      <c r="AO40" s="18">
-        <v>1.54582252971178</v>
+      <c r="AO40" s="17">
+        <v>1.47957071681177</v>
+      </c>
+      <c r="AP40" s="18">
+        <v>1.5306256597110099</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>79</v>
       </c>
@@ -6352,11 +6470,14 @@
       <c r="AN41" s="24">
         <v>1.01285431198523</v>
       </c>
-      <c r="AO41" s="25">
-        <v>1.0664305774032099</v>
+      <c r="AO41" s="24">
+        <v>0.98933432227787999</v>
+      </c>
+      <c r="AP41" s="25">
+        <v>1.0410347515910501</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>81</v>
       </c>
@@ -6477,11 +6598,14 @@
       <c r="AN42" s="24">
         <v>2.6341212865127899</v>
       </c>
-      <c r="AO42" s="25">
-        <v>2.67041575730003</v>
+      <c r="AO42" s="24">
+        <v>2.6057891619780902</v>
+      </c>
+      <c r="AP42" s="25">
+        <v>2.65590220719423</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>83</v>
       </c>
@@ -6602,11 +6726,14 @@
       <c r="AN43" s="17">
         <v>0.87193092938700001</v>
       </c>
-      <c r="AO43" s="18">
-        <v>0.94391927675305998</v>
+      <c r="AO43" s="17">
+        <v>0.84266425318880001</v>
+      </c>
+      <c r="AP43" s="18">
+        <v>0.90845302232183001</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>85</v>
       </c>
@@ -6727,11 +6854,14 @@
       <c r="AN44" s="17">
         <v>0.71522886547950004</v>
       </c>
-      <c r="AO44" s="18">
-        <v>0.79196015067360004</v>
+      <c r="AO44" s="17">
+        <v>0.67503780768782995</v>
+      </c>
+      <c r="AP44" s="18">
+        <v>0.76168787269992</v>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="19" t="s">
         <v>24</v>
       </c>
@@ -6852,11 +6982,14 @@
       <c r="AN45" s="21">
         <v>1.3116469229143399</v>
       </c>
-      <c r="AO45" s="22">
-        <v>1.38011467573174</v>
+      <c r="AO45" s="21">
+        <v>1.27769017536452</v>
+      </c>
+      <c r="AP45" s="22">
+        <v>1.3487234351891699</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>88</v>
       </c>
@@ -6977,11 +7110,14 @@
       <c r="AN46" s="17">
         <v>2.58257686930108</v>
       </c>
-      <c r="AO46" s="18">
-        <v>2.6467648561510102</v>
+      <c r="AO46" s="17">
+        <v>2.5480531721557198</v>
+      </c>
+      <c r="AP46" s="18">
+        <v>2.6172163415424401</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>90</v>
       </c>
@@ -7102,11 +7238,14 @@
       <c r="AN47" s="17">
         <v>2.4380890233738399</v>
       </c>
-      <c r="AO47" s="18">
-        <v>2.4980951961861302</v>
+      <c r="AO47" s="17">
+        <v>2.4049334415088701</v>
+      </c>
+      <c r="AP47" s="18">
+        <v>2.4694837632392099</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>92</v>
       </c>
@@ -7227,11 +7366,14 @@
       <c r="AN48" s="24">
         <v>0.93644268672030995</v>
       </c>
-      <c r="AO48" s="25">
-        <v>0.94516026751602999</v>
+      <c r="AO48" s="24">
+        <v>0.92518127247809001</v>
+      </c>
+      <c r="AP48" s="25">
+        <v>0.94366674704970999</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>94</v>
       </c>
@@ -7352,11 +7494,14 @@
       <c r="AN49" s="17">
         <v>2.4495546743690699</v>
       </c>
-      <c r="AO49" s="18">
-        <v>2.4974773548393201</v>
+      <c r="AO49" s="17">
+        <v>2.42718525839161</v>
+      </c>
+      <c r="AP49" s="18">
+        <v>2.4768911793682902</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>96</v>
       </c>
@@ -7477,11 +7622,14 @@
       <c r="AN50" s="17">
         <v>2.3552411596271998</v>
       </c>
-      <c r="AO50" s="18">
-        <v>2.4311168105110901</v>
+      <c r="AO50" s="17">
+        <v>2.3064534946980002</v>
+      </c>
+      <c r="AP50" s="18">
+        <v>2.3959028132729498</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>98</v>
       </c>
@@ -7602,11 +7750,14 @@
       <c r="AN51" s="14">
         <v>1.8412787330023901</v>
       </c>
-      <c r="AO51" s="15">
-        <v>1.89348522015118</v>
+      <c r="AO51" s="14">
+        <v>1.8157645145624499</v>
+      </c>
+      <c r="AP51" s="15">
+        <v>1.8706177260715999</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>100</v>
       </c>
@@ -7727,11 +7878,14 @@
       <c r="AN52" s="17">
         <v>2.28882409861717</v>
       </c>
-      <c r="AO52" s="18">
-        <v>2.3534049988573398</v>
+      <c r="AO52" s="17">
+        <v>2.2461197937407902</v>
+      </c>
+      <c r="AP52" s="18">
+        <v>2.3245743528273999</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>102</v>
       </c>
@@ -7852,11 +8006,14 @@
       <c r="AN53" s="17">
         <v>2.0847368292452999</v>
       </c>
-      <c r="AO53" s="18">
-        <v>2.13095013273532</v>
+      <c r="AO53" s="17">
+        <v>2.0565240657253399</v>
+      </c>
+      <c r="AP53" s="18">
+        <v>2.1121914732523699</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>104</v>
       </c>
@@ -7977,11 +8134,14 @@
       <c r="AN54" s="17">
         <v>2.1378875618738098</v>
       </c>
-      <c r="AO54" s="18">
-        <v>2.1676412409411498</v>
+      <c r="AO54" s="17">
+        <v>2.1206337675749598</v>
+      </c>
+      <c r="AP54" s="18">
+        <v>2.1554025895855302</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>106</v>
       </c>
@@ -8102,11 +8262,14 @@
       <c r="AN55" s="17">
         <v>3.0358865935099102</v>
       </c>
-      <c r="AO55" s="18">
-        <v>3.0790141084951399</v>
+      <c r="AO55" s="17">
+        <v>3.00783701807732</v>
+      </c>
+      <c r="AP55" s="18">
+        <v>3.0608381959560398</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>108</v>
       </c>
@@ -8227,11 +8390,14 @@
       <c r="AN56" s="17">
         <v>3.76440101158326</v>
       </c>
-      <c r="AO56" s="18">
-        <v>3.7949858055722498</v>
+      <c r="AO56" s="17">
+        <v>3.7384325482259899</v>
+      </c>
+      <c r="AP56" s="18">
+        <v>3.78346133193899</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>110</v>
       </c>
@@ -8352,11 +8518,14 @@
       <c r="AN57" s="24">
         <v>2.3097581560266098</v>
       </c>
-      <c r="AO57" s="25">
-        <v>2.36198669592387</v>
+      <c r="AO57" s="24">
+        <v>2.2809699256261</v>
+      </c>
+      <c r="AP57" s="25">
+        <v>2.3364928256685</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>112</v>
       </c>
@@ -8477,11 +8646,14 @@
       <c r="AN58" s="17">
         <v>2.5049984212764902</v>
       </c>
-      <c r="AO58" s="18">
-        <v>2.5512838833224598</v>
+      <c r="AO58" s="17">
+        <v>2.4815394138618201</v>
+      </c>
+      <c r="AP58" s="18">
+        <v>2.53164788085083</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>114</v>
       </c>
@@ -8602,11 +8774,14 @@
       <c r="AN59" s="17">
         <v>2.0082859785206102</v>
       </c>
-      <c r="AO59" s="18">
-        <v>2.0848389099077602</v>
+      <c r="AO59" s="17">
+        <v>1.96897847476594</v>
+      </c>
+      <c r="AP59" s="18">
+        <v>2.0478169712932401</v>
       </c>
     </row>
-    <row r="60" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>116</v>
       </c>
@@ -8727,11 +8902,14 @@
       <c r="AN60" s="14">
         <v>2.2139026596722098</v>
       </c>
-      <c r="AO60" s="15">
-        <v>2.2634236559389902</v>
+      <c r="AO60" s="14">
+        <v>2.19178807508038</v>
+      </c>
+      <c r="AP60" s="15">
+        <v>2.2382089719519098</v>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="19" t="s">
         <v>24</v>
       </c>
@@ -8852,11 +9030,14 @@
       <c r="AN61" s="21">
         <v>2.4271113917645901</v>
       </c>
-      <c r="AO61" s="22">
-        <v>2.4749514393417602</v>
+      <c r="AO61" s="21">
+        <v>2.4003099771119798</v>
+      </c>
+      <c r="AP61" s="22">
+        <v>2.4527379385311798</v>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="27" t="s">
         <v>24</v>
       </c>
@@ -8977,11 +9158,14 @@
       <c r="AN62" s="29">
         <v>2.2865184697175902</v>
       </c>
-      <c r="AO62" s="30">
-        <v>2.33526239154358</v>
+      <c r="AO62" s="29">
+        <v>2.25831207275538</v>
+      </c>
+      <c r="AP62" s="30">
+        <v>2.3136583798521602</v>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="27" t="s">
         <v>24</v>
       </c>
@@ -9102,11 +9286,14 @@
       <c r="AN63" s="32">
         <v>0.53609074594997996</v>
       </c>
-      <c r="AO63" s="33">
-        <v>0.56403841645095998</v>
+      <c r="AO63" s="32">
+        <v>0.51650227092372003</v>
+      </c>
+      <c r="AP63" s="33">
+        <v>0.55579199382750999</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A64" s="34" t="s">
         <v>24</v>
       </c>
@@ -9227,11 +9414,14 @@
       <c r="AN64" s="29">
         <v>0.69272425338570998</v>
       </c>
-      <c r="AO64" s="30">
-        <v>0.72200484739701998</v>
+      <c r="AO64" s="29">
+        <v>0.66871683990358999</v>
+      </c>
+      <c r="AP64" s="30">
+        <v>0.71195074341992004</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
         <v>24</v>
       </c>
@@ -9352,11 +9542,14 @@
       <c r="AN65" s="36">
         <v>0.64137343709960004</v>
       </c>
-      <c r="AO65" s="37">
-        <v>0.67731620060094</v>
+      <c r="AO65" s="36">
+        <v>0.61875852367416995</v>
+      </c>
+      <c r="AP65" s="37">
+        <v>0.66514680606855003</v>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34" t="s">
         <v>24</v>
       </c>
@@ -9477,11 +9670,14 @@
       <c r="AN66" s="39">
         <v>0.86917093883231999</v>
       </c>
-      <c r="AO66" s="40">
-        <v>0.89164721249286005</v>
+      <c r="AO66" s="39">
+        <v>0.85259978474318998</v>
+      </c>
+      <c r="AP66" s="40">
+        <v>0.88561014986778996</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A67" s="34" t="s">
         <v>24</v>
       </c>
@@ -9602,11 +9798,14 @@
       <c r="AN67" s="42">
         <v>2.3238282136257302</v>
       </c>
-      <c r="AO67" s="43">
-        <v>2.3736644193407002</v>
+      <c r="AO67" s="42">
+        <v>2.2947830035001</v>
+      </c>
+      <c r="AP67" s="43">
+        <v>2.3509876362642501</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A68" s="34" t="s">
         <v>24</v>
       </c>
@@ -9727,11 +9926,14 @@
       <c r="AN68" s="36">
         <v>2.19577840803862</v>
       </c>
-      <c r="AO68" s="37">
-        <v>2.24095559278306</v>
+      <c r="AO68" s="36">
+        <v>2.1697183188398301</v>
+      </c>
+      <c r="AP68" s="37">
+        <v>2.2205366146742298</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
         <v>24</v>
       </c>
@@ -9852,11 +10054,14 @@
       <c r="AN69" s="36">
         <v>2.4460592780208201</v>
       </c>
-      <c r="AO69" s="37">
-        <v>2.4951264491016398</v>
+      <c r="AO69" s="36">
+        <v>2.42064259351891</v>
+      </c>
+      <c r="AP69" s="37">
+        <v>2.47142957691617</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
         <v>24</v>
       </c>
@@ -9977,11 +10182,14 @@
       <c r="AN70" s="36">
         <v>2.9094994619164298</v>
       </c>
-      <c r="AO70" s="37">
-        <v>2.9637434632944699</v>
+      <c r="AO70" s="36">
+        <v>2.8805032655275302</v>
+      </c>
+      <c r="AP70" s="37">
+        <v>2.9387741541088399</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A71" s="34" t="s">
         <v>24</v>
       </c>
@@ -10102,11 +10310,14 @@
       <c r="AN71" s="36">
         <v>2.4271113917646101</v>
       </c>
-      <c r="AO71" s="37">
-        <v>2.4749514393417602</v>
+      <c r="AO71" s="36">
+        <v>2.4003099771119798</v>
+      </c>
+      <c r="AP71" s="37">
+        <v>2.4527379385311798</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A72" s="34" t="s">
         <v>24</v>
       </c>
@@ -10227,11 +10438,14 @@
       <c r="AN72" s="36">
         <v>2.3772846240431398</v>
       </c>
-      <c r="AO72" s="37">
-        <v>2.4377963609824298</v>
+      <c r="AO72" s="36">
+        <v>2.3435198651119702</v>
+      </c>
+      <c r="AP72" s="37">
+        <v>2.4085590237630901</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A73" s="34" t="s">
         <v>24</v>
       </c>
@@ -10352,11 +10566,14 @@
       <c r="AN73" s="36">
         <v>2.5220053291748101</v>
       </c>
-      <c r="AO73" s="37">
-        <v>2.5610965173604701</v>
+      <c r="AO73" s="36">
+        <v>2.4940797835606401</v>
+      </c>
+      <c r="AP73" s="37">
+        <v>2.54708711239262</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
         <v>24</v>
       </c>
@@ -10477,11 +10694,14 @@
       <c r="AN74" s="36">
         <v>1.10510761576794</v>
       </c>
-      <c r="AO74" s="37">
-        <v>1.20587525983245</v>
+      <c r="AO74" s="36">
+        <v>1.06326937589478</v>
+      </c>
+      <c r="AP74" s="37">
+        <v>1.15686079420609</v>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34" t="s">
         <v>24</v>
       </c>
@@ -10602,11 +10822,14 @@
       <c r="AN75" s="39">
         <v>2.7959894721114198</v>
       </c>
-      <c r="AO75" s="40">
-        <v>2.86228688845764</v>
+      <c r="AO75" s="39">
+        <v>2.7588067056466801</v>
+      </c>
+      <c r="AP75" s="40">
+        <v>2.8325664030873798</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A76" s="34" t="s">
         <v>24</v>
       </c>
@@ -10727,11 +10950,14 @@
       <c r="AN76" s="42">
         <v>0.76658116606527005</v>
       </c>
-      <c r="AO76" s="43">
-        <v>0.81360082279020995</v>
+      <c r="AO76" s="42">
+        <v>0.74018451683870001</v>
+      </c>
+      <c r="AP76" s="43">
+        <v>0.79451319868351</v>
       </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A77" s="34" t="s">
         <v>24</v>
       </c>
@@ -10852,11 +11078,14 @@
       <c r="AN77" s="36">
         <v>0.65663234144547999</v>
       </c>
-      <c r="AO77" s="37">
-        <v>0.68071009308776997</v>
+      <c r="AO77" s="36">
+        <v>0.63254274081157003</v>
+      </c>
+      <c r="AP77" s="37">
+        <v>0.6745828236268</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A78" s="34" t="s">
         <v>24</v>
       </c>
@@ -10977,11 +11206,14 @@
       <c r="AN78" s="36">
         <v>-0.119309048924</v>
       </c>
-      <c r="AO78" s="37">
-        <v>-9.9456662889200007E-2</v>
+      <c r="AO78" s="36">
+        <v>-0.10262777469910001</v>
+      </c>
+      <c r="AP78" s="37">
+        <v>-0.19155038514799999</v>
       </c>
     </row>
-    <row r="79" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34" t="s">
         <v>24</v>
       </c>
@@ -11102,11 +11334,14 @@
       <c r="AN79" s="39">
         <v>0.23926288631146</v>
       </c>
-      <c r="AO79" s="40">
-        <v>0.25441222337141001</v>
+      <c r="AO79" s="39">
+        <v>0.23692414191041</v>
+      </c>
+      <c r="AP79" s="40">
+        <v>0.22519654161757</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A80" s="34" t="s">
         <v>24</v>
       </c>
@@ -11227,11 +11462,14 @@
       <c r="AN80" s="42">
         <v>2.2490125623723798</v>
       </c>
-      <c r="AO80" s="43">
-        <v>2.3136425525050401</v>
+      <c r="AO80" s="42">
+        <v>2.21739778619146</v>
+      </c>
+      <c r="AP80" s="43">
+        <v>2.2821391218807299</v>
       </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A81" s="34" t="s">
         <v>24</v>
       </c>
@@ -11352,11 +11590,14 @@
       <c r="AN81" s="36">
         <v>0.82584470671402999</v>
       </c>
-      <c r="AO81" s="37">
-        <v>0.87647068245523996</v>
+      <c r="AO81" s="36">
+        <v>0.80204700189375</v>
+      </c>
+      <c r="AP81" s="37">
+        <v>0.84865977553409999</v>
       </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A82" s="34" t="s">
         <v>24</v>
       </c>
@@ -11477,11 +11718,14 @@
       <c r="AN82" s="36">
         <v>2.2982140423680999</v>
       </c>
-      <c r="AO82" s="37">
-        <v>2.3420065303789701</v>
+      <c r="AO82" s="36">
+        <v>2.2710643535862198</v>
+      </c>
+      <c r="AP82" s="37">
+        <v>2.3234891505905302</v>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34" t="s">
         <v>24</v>
       </c>
@@ -11602,11 +11846,14 @@
       <c r="AN83" s="39">
         <v>0.51136288969331001</v>
       </c>
-      <c r="AO83" s="40">
-        <v>0.53756017075094997</v>
+      <c r="AO83" s="39">
+        <v>0.49205738897327</v>
+      </c>
+      <c r="AP83" s="40">
+        <v>0.53087964327440995</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A84" s="34" t="s">
         <v>24</v>
       </c>
@@ -11727,11 +11974,14 @@
       <c r="AN84" s="42">
         <v>2.6830796889099999</v>
       </c>
-      <c r="AO84" s="43">
-        <v>2.7384834311683202</v>
+      <c r="AO84" s="42">
+        <v>2.65145809237355</v>
+      </c>
+      <c r="AP84" s="43">
+        <v>2.71274047295667</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A85" s="34" t="s">
         <v>24</v>
       </c>
@@ -11852,11 +12102,14 @@
       <c r="AN85" s="36">
         <v>2.1705714903259299</v>
       </c>
-      <c r="AO85" s="37">
-        <v>2.3557333743936999</v>
+      <c r="AO85" s="36">
+        <v>2.0789225361083501</v>
+      </c>
+      <c r="AP85" s="37">
+        <v>2.2744240031302501</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A86" s="34" t="s">
         <v>24</v>
       </c>
@@ -11977,11 +12230,14 @@
       <c r="AN86" s="36">
         <v>2.0860321383599199</v>
       </c>
-      <c r="AO86" s="37">
-        <v>2.1392657731115001</v>
+      <c r="AO86" s="36">
+        <v>2.0583124590940298</v>
+      </c>
+      <c r="AP86" s="37">
+        <v>2.1147847197332799</v>
       </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A87" s="34" t="s">
         <v>24</v>
       </c>
@@ -12102,11 +12358,14 @@
       <c r="AN87" s="36">
         <v>0.93772367309448001</v>
       </c>
-      <c r="AO87" s="37">
-        <v>0.97047098977420998</v>
+      <c r="AO87" s="36">
+        <v>0.90669878612461996</v>
+      </c>
+      <c r="AP87" s="37">
+        <v>0.98192222993808997</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A88" s="34" t="s">
         <v>24</v>
       </c>
@@ -12227,11 +12486,14 @@
       <c r="AN88" s="36">
         <v>1.06858416087825</v>
       </c>
-      <c r="AO88" s="37">
-        <v>1.08263031359244</v>
+      <c r="AO88" s="36">
+        <v>1.03233676465713</v>
+      </c>
+      <c r="AP88" s="37">
+        <v>1.0904939256039901</v>
       </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A89" s="34" t="s">
         <v>24</v>
       </c>
@@ -12352,11 +12614,14 @@
       <c r="AN89" s="36">
         <v>0.14599354654143001</v>
       </c>
-      <c r="AO89" s="37">
-        <v>0.17326028004057001</v>
+      <c r="AO89" s="36">
+        <v>0.13053906197331</v>
+      </c>
+      <c r="AP89" s="37">
+        <v>0.15559686847692999</v>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34" t="s">
         <v>24</v>
       </c>
@@ -12477,11 +12742,14 @@
       <c r="AN90" s="39">
         <v>0.20211963056773</v>
       </c>
-      <c r="AO90" s="40">
-        <v>0.22090171257044999</v>
+      <c r="AO90" s="39">
+        <v>0.20074061059553999</v>
+      </c>
+      <c r="AP90" s="40">
+        <v>0.18669523602957</v>
       </c>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A91" s="34" t="s">
         <v>24</v>
       </c>
@@ -12602,11 +12870,14 @@
       <c r="AN91" s="42">
         <v>2.6906989683747899</v>
       </c>
-      <c r="AO91" s="43">
-        <v>2.7490301157364598</v>
+      <c r="AO91" s="42">
+        <v>2.6584443642795299</v>
+      </c>
+      <c r="AP91" s="43">
+        <v>2.7219061196761301</v>
       </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A92" s="34" t="s">
         <v>24</v>
       </c>
@@ -12727,11 +12998,14 @@
       <c r="AN92" s="36">
         <v>1.20839255762977</v>
       </c>
-      <c r="AO92" s="37">
-        <v>1.2639942026813999</v>
+      <c r="AO92" s="36">
+        <v>1.1762423390891099</v>
+      </c>
+      <c r="AP92" s="37">
+        <v>1.2371394068225301</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A93" s="34" t="s">
         <v>24</v>
       </c>
@@ -12852,11 +13126,14 @@
       <c r="AN93" s="36">
         <v>1.3695900725577299</v>
       </c>
-      <c r="AO93" s="37">
-        <v>1.3957509567857</v>
+      <c r="AO93" s="36">
+        <v>1.3518798981957201</v>
+      </c>
+      <c r="AP93" s="37">
+        <v>1.38673439375814</v>
       </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A94" s="34" t="s">
         <v>24</v>
       </c>
@@ -12977,11 +13254,14 @@
       <c r="AN94" s="36">
         <v>0.78242660494046001</v>
       </c>
-      <c r="AO94" s="37">
-        <v>0.82097148823738997</v>
+      <c r="AO94" s="36">
+        <v>0.76161499185134995</v>
+      </c>
+      <c r="AP94" s="37">
+        <v>0.80236279698035995</v>
       </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A95" s="34" t="s">
         <v>24</v>
       </c>
@@ -13102,11 +13382,14 @@
       <c r="AN95" s="36">
         <v>2.5832207177364501</v>
       </c>
-      <c r="AO95" s="37">
-        <v>2.6386883658219999</v>
+      <c r="AO95" s="36">
+        <v>2.5518784483637802</v>
+      </c>
+      <c r="AP95" s="37">
+        <v>2.61249283401499</v>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34" t="s">
         <v>24</v>
       </c>
@@ -13227,11 +13510,14 @@
       <c r="AN96" s="39">
         <v>1.3890705569248101</v>
       </c>
-      <c r="AO96" s="40">
-        <v>1.46524168902629</v>
+      <c r="AO96" s="39">
+        <v>1.3556487234738901</v>
+      </c>
+      <c r="AP96" s="40">
+        <v>1.41343969054546</v>
       </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A97" s="34" t="s">
         <v>24</v>
       </c>
@@ -13352,11 +13638,14 @@
       <c r="AN97" s="42">
         <v>2.5527599512886701</v>
       </c>
-      <c r="AO97" s="43">
-        <v>2.60681479745109</v>
+      <c r="AO97" s="42">
+        <v>2.5228856454156499</v>
+      </c>
+      <c r="AP97" s="43">
+        <v>2.5816002394782398</v>
       </c>
     </row>
-    <row r="98" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="34" t="s">
         <v>24</v>
       </c>
@@ -13477,11 +13766,14 @@
       <c r="AN98" s="39">
         <v>1.4659946940908299</v>
       </c>
-      <c r="AO98" s="40">
-        <v>1.54219848664612</v>
+      <c r="AO98" s="39">
+        <v>1.42627200968957</v>
+      </c>
+      <c r="AP98" s="40">
+        <v>1.5080500014995</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A99" s="44"/>
       <c r="B99" s="45"/>
       <c r="C99" s="46"/>
@@ -13523,8 +13815,9 @@
       <c r="AM99" s="46"/>
       <c r="AN99" s="46"/>
       <c r="AO99" s="46"/>
+      <c r="AP99" s="46"/>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>156</v>
       </c>
@@ -13567,8 +13860,9 @@
       <c r="AM100" s="47"/>
       <c r="AN100" s="47"/>
       <c r="AO100" s="47"/>
+      <c r="AP100" s="47"/>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>157</v>
       </c>
@@ -13611,8 +13905,9 @@
       <c r="AM101" s="47"/>
       <c r="AN101" s="47"/>
       <c r="AO101" s="47"/>
+      <c r="AP101" s="47"/>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>158</v>
       </c>
@@ -13655,8 +13950,9 @@
       <c r="AM102" s="47"/>
       <c r="AN102" s="47"/>
       <c r="AO102" s="47"/>
+      <c r="AP102" s="47"/>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>159</v>
       </c>
@@ -13699,8 +13995,9 @@
       <c r="AM103" s="47"/>
       <c r="AN103" s="47"/>
       <c r="AO103" s="47"/>
+      <c r="AP103" s="47"/>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>160</v>
       </c>
@@ -13743,8 +14040,9 @@
       <c r="AM104" s="47"/>
       <c r="AN104" s="47"/>
       <c r="AO104" s="47"/>
+      <c r="AP104" s="47"/>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>161</v>
       </c>
@@ -13787,8 +14085,9 @@
       <c r="AM105" s="47"/>
       <c r="AN105" s="47"/>
       <c r="AO105" s="47"/>
+      <c r="AP105" s="47"/>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.35">
       <c r="C106" s="47"/>
       <c r="D106" s="47"/>
       <c r="E106" s="47"/>
@@ -13828,8 +14127,9 @@
       <c r="AM106" s="47"/>
       <c r="AN106" s="47"/>
       <c r="AO106" s="47"/>
+      <c r="AP106" s="47"/>
     </row>
-    <row r="107" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:42" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="48" t="s">
         <v>162</v>
       </c>
@@ -13872,8 +14172,9 @@
       <c r="AM107" s="47"/>
       <c r="AN107" s="47"/>
       <c r="AO107" s="47"/>
+      <c r="AP107" s="47"/>
     </row>
-    <row r="108" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:42" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="48"/>
       <c r="C108" s="47"/>
       <c r="D108" s="47"/>
@@ -13914,8 +14215,9 @@
       <c r="AM108" s="47"/>
       <c r="AN108" s="47"/>
       <c r="AO108" s="47"/>
+      <c r="AP108" s="47"/>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
         <v>163</v>
       </c>
@@ -13958,8 +14260,9 @@
       <c r="AM109" s="47"/>
       <c r="AN109" s="47"/>
       <c r="AO109" s="47"/>
+      <c r="AP109" s="47"/>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
         <v>164</v>
       </c>
@@ -14002,8 +14305,9 @@
       <c r="AM110" s="47"/>
       <c r="AN110" s="47"/>
       <c r="AO110" s="47"/>
+      <c r="AP110" s="47"/>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B111" s="2"/>
       <c r="C111" s="47"/>
       <c r="D111" s="47"/>
@@ -14044,8 +14348,9 @@
       <c r="AM111" s="47"/>
       <c r="AN111" s="47"/>
       <c r="AO111" s="47"/>
+      <c r="AP111" s="47"/>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>165</v>
       </c>
@@ -14088,8 +14393,9 @@
       <c r="AM112" s="47"/>
       <c r="AN112" s="47"/>
       <c r="AO112" s="47"/>
+      <c r="AP112" s="47"/>
     </row>
-    <row r="113" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
         <v>166</v>
       </c>
@@ -14132,8 +14438,9 @@
       <c r="AM113" s="47"/>
       <c r="AN113" s="47"/>
       <c r="AO113" s="47"/>
+      <c r="AP113" s="47"/>
     </row>
-    <row r="114" spans="2:41" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B114" s="2"/>
       <c r="C114" s="47"/>
       <c r="D114" s="47"/>
@@ -14173,14 +14480,15 @@
       <c r="AL114" s="47"/>
       <c r="AM114" s="47"/>
       <c r="AN114" s="47"/>
+      <c r="AO114" s="47"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{DA68B237-B2AF-4E30-BBAF-5D0022BF2959}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{70D0FF32-2135-4D8E-AA39-9B0B543C0153}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{E04BC761-EA72-4B3F-A5CA-AF5C4755258F}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{81EDE7EF-B3E0-4EE9-B228-C100896142E1}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{0FDB8074-D782-40F8-9B75-7F565305C204}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2D1D95EB-2234-451D-BD24-B65892E914DE}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3DADB4F0-6325-47DF-976A-B115DA3BA1CE}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{68E4BFF7-D021-4EE4-9850-718E6A95A62F}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C3870053-C8FE-47CD-BD66-19F07288C6FB}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{6103435D-C3F4-483A-9E9F-E248DA948114}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab03.xlsx
+++ b/AfDD_2023_Annex_Table_Tab03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA173F6-4693-4AA3-AE6C-0523E6CD9CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BC5182F-24A4-48DC-9EF0-04FCAF9F42D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4672048F-92E1-4491-B8AD-84F1D4CB4790}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9F8CE6E3-2BCD-4F62-91BB-B64B3C155199}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab03'!$A$2:$AL$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab03'!$A$1:$AL$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -237,7 +237,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>..</t>
@@ -372,7 +372,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -519,10 +519,10 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Figures up to 2021 are estimates. For 2022 onwards, they are projections.</t>
-  </si>
-  <si>
-    <t>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2022 Revision.</t>
+    <t>Figures up to 2022 are estimates. For 2023 onwards, they are projections.</t>
+  </si>
+  <si>
+    <t>Source: World Population Prospects: the 2022 Revision - United Nations Department of Economic and Social Affairs Population Division.</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1295,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1566765-651A-49A2-A588-2E3CAEBB37B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBEE459-32B8-41BB-8C72-BA73BF0738D9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5457,127 +5457,127 @@
       <c r="A34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="14" t="s">
+      <c r="M34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="O34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="P34" s="14" t="s">
+      <c r="P34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="Q34" s="14" t="s">
+      <c r="Q34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="R34" s="14" t="s">
+      <c r="R34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="S34" s="14" t="s">
+      <c r="S34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="T34" s="14" t="s">
+      <c r="T34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="U34" s="14" t="s">
+      <c r="U34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="V34" s="14" t="s">
+      <c r="V34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="W34" s="14" t="s">
+      <c r="W34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="X34" s="14" t="s">
+      <c r="X34" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="Y34" s="14">
+      <c r="Y34" s="24">
         <v>4.47673300432976</v>
       </c>
-      <c r="Z34" s="14">
+      <c r="Z34" s="24">
         <v>3.7791250732133399</v>
       </c>
-      <c r="AA34" s="14">
+      <c r="AA34" s="24">
         <v>0.96571853617190995</v>
       </c>
-      <c r="AB34" s="14">
+      <c r="AB34" s="24">
         <v>-0.1693081170512</v>
       </c>
-      <c r="AC34" s="14">
+      <c r="AC34" s="24">
         <v>-1.1451721988129999</v>
       </c>
-      <c r="AD34" s="14">
+      <c r="AD34" s="24">
         <v>-3.6858406819743998</v>
       </c>
-      <c r="AE34" s="14">
+      <c r="AE34" s="24">
         <v>-2.4666018528786999</v>
       </c>
-      <c r="AF34" s="14">
+      <c r="AF34" s="24">
         <v>0.50345684071597996</v>
       </c>
-      <c r="AG34" s="14">
+      <c r="AG34" s="24">
         <v>1.51766911384803</v>
       </c>
-      <c r="AH34" s="14">
+      <c r="AH34" s="24">
         <v>1.3392604174887099</v>
       </c>
-      <c r="AI34" s="14">
+      <c r="AI34" s="24">
         <v>1.5341256715498</v>
       </c>
-      <c r="AJ34" s="14">
+      <c r="AJ34" s="24">
         <v>1.6093591189502801</v>
       </c>
-      <c r="AK34" s="14">
+      <c r="AK34" s="24">
         <v>1.69807434459071</v>
       </c>
-      <c r="AL34" s="14">
+      <c r="AL34" s="24">
         <v>1.74111375521278</v>
       </c>
-      <c r="AM34" s="14">
+      <c r="AM34" s="24">
         <v>1.7714566661312301</v>
       </c>
-      <c r="AN34" s="14">
+      <c r="AN34" s="24">
         <v>1.80338839290533</v>
       </c>
-      <c r="AO34" s="14">
+      <c r="AO34" s="24">
         <v>1.83974240661979</v>
       </c>
-      <c r="AP34" s="15">
+      <c r="AP34" s="25">
         <v>1.7707433355601301</v>
       </c>
     </row>
@@ -8401,127 +8401,127 @@
       <c r="A57" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="17">
         <v>2.6634513234183901</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="17">
         <v>2.5953077594251601</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="17">
         <v>2.5558435777889299</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="17">
         <v>2.58870638945332</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="17">
         <v>2.6082655292123</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="17">
         <v>2.5901663877813301</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="17">
         <v>2.5590481202052699</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="17">
         <v>2.5550608567708202</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="17">
         <v>2.5479531669506201</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="17">
         <v>2.5752201804693202</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="17">
         <v>2.6370392253046302</v>
       </c>
-      <c r="N57" s="24">
+      <c r="N57" s="17">
         <v>2.68672421277298</v>
       </c>
-      <c r="O57" s="24">
+      <c r="O57" s="17">
         <v>2.71920347184385</v>
       </c>
-      <c r="P57" s="24">
+      <c r="P57" s="17">
         <v>2.7293505246589902</v>
       </c>
-      <c r="Q57" s="24">
+      <c r="Q57" s="17">
         <v>2.7321607850059801</v>
       </c>
-      <c r="R57" s="24">
+      <c r="R57" s="17">
         <v>2.7303013008898902</v>
       </c>
-      <c r="S57" s="24">
+      <c r="S57" s="17">
         <v>2.7325946833699</v>
       </c>
-      <c r="T57" s="24">
+      <c r="T57" s="17">
         <v>2.7466711578631799</v>
       </c>
-      <c r="U57" s="24">
+      <c r="U57" s="17">
         <v>2.7570078546925698</v>
       </c>
-      <c r="V57" s="24">
+      <c r="V57" s="17">
         <v>2.7649184349284801</v>
       </c>
-      <c r="W57" s="24">
+      <c r="W57" s="17">
         <v>2.7823844372591302</v>
       </c>
-      <c r="X57" s="24">
+      <c r="X57" s="17">
         <v>2.8026163487601101</v>
       </c>
-      <c r="Y57" s="24">
+      <c r="Y57" s="17">
         <v>2.78743056371655</v>
       </c>
-      <c r="Z57" s="24">
+      <c r="Z57" s="17">
         <v>2.7341852226333798</v>
       </c>
-      <c r="AA57" s="24">
+      <c r="AA57" s="17">
         <v>2.6629635684184398</v>
       </c>
-      <c r="AB57" s="24">
+      <c r="AB57" s="17">
         <v>2.5737503209405599</v>
       </c>
-      <c r="AC57" s="24">
+      <c r="AC57" s="17">
         <v>2.5387250177427898</v>
       </c>
-      <c r="AD57" s="24">
+      <c r="AD57" s="17">
         <v>2.5595243291470098</v>
       </c>
-      <c r="AE57" s="24">
+      <c r="AE57" s="17">
         <v>2.5280720795814999</v>
       </c>
-      <c r="AF57" s="24">
+      <c r="AF57" s="17">
         <v>2.4784151983110498</v>
       </c>
-      <c r="AG57" s="24">
+      <c r="AG57" s="17">
         <v>2.4706350315171699</v>
       </c>
-      <c r="AH57" s="24">
+      <c r="AH57" s="17">
         <v>2.4355504377138901</v>
       </c>
-      <c r="AI57" s="24">
+      <c r="AI57" s="17">
         <v>2.4085553583939001</v>
       </c>
-      <c r="AJ57" s="24">
+      <c r="AJ57" s="17">
         <v>2.4084336093093599</v>
       </c>
-      <c r="AK57" s="24">
+      <c r="AK57" s="17">
         <v>2.3893987145002402</v>
       </c>
-      <c r="AL57" s="24">
+      <c r="AL57" s="17">
         <v>2.3658448829233998</v>
       </c>
-      <c r="AM57" s="24">
+      <c r="AM57" s="17">
         <v>2.3365288889730702</v>
       </c>
-      <c r="AN57" s="24">
+      <c r="AN57" s="17">
         <v>2.3097581560266098</v>
       </c>
-      <c r="AO57" s="24">
+      <c r="AO57" s="17">
         <v>2.2809699256261</v>
       </c>
-      <c r="AP57" s="25">
+      <c r="AP57" s="18">
         <v>2.3364928256685</v>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
         <v>123</v>
       </c>
       <c r="C66" s="39">
-        <v>1.7734226496343199</v>
+        <v>1.77342264963429</v>
       </c>
       <c r="D66" s="39">
         <v>1.69679641954419</v>
@@ -9581,10 +9581,10 @@
         <v>1.3972657776145201</v>
       </c>
       <c r="K66" s="39">
-        <v>1.37222229341354</v>
+        <v>1.3722222934135599</v>
       </c>
       <c r="L66" s="39">
-        <v>1.34918053510849</v>
+        <v>1.34918053510846</v>
       </c>
       <c r="M66" s="39">
         <v>1.3409639141121099</v>
@@ -9656,10 +9656,10 @@
         <v>0.83462258401334</v>
       </c>
       <c r="AJ66" s="39">
-        <v>0.88277883270944002</v>
+        <v>0.88277883270942004</v>
       </c>
       <c r="AK66" s="39">
-        <v>0.91651237972320998</v>
+        <v>0.91651237972322996</v>
       </c>
       <c r="AL66" s="39">
         <v>0.90365068168149998</v>
@@ -9674,7 +9674,7 @@
         <v>0.85259978474318998</v>
       </c>
       <c r="AP66" s="40">
-        <v>0.88561014986778996</v>
+        <v>0.88561014986780995</v>
       </c>
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.35">
@@ -9813,10 +9813,10 @@
         <v>125</v>
       </c>
       <c r="C68" s="36">
-        <v>2.5182118448480599</v>
+        <v>2.5182118448480399</v>
       </c>
       <c r="D68" s="36">
-        <v>2.3494548731092499</v>
+        <v>2.3494548731092899</v>
       </c>
       <c r="E68" s="36">
         <v>2.22658190236469</v>
@@ -9849,16 +9849,16 @@
         <v>2.5445370313136499</v>
       </c>
       <c r="O68" s="36">
-        <v>2.5598907013483001</v>
+        <v>2.5598907013482801</v>
       </c>
       <c r="P68" s="36">
         <v>2.5677640009769398</v>
       </c>
       <c r="Q68" s="36">
-        <v>2.5646962251603602</v>
+        <v>2.5646962251603802</v>
       </c>
       <c r="R68" s="36">
-        <v>2.5454256091826499</v>
+        <v>2.5454256091826299</v>
       </c>
       <c r="S68" s="36">
         <v>2.5234734716863598</v>
@@ -9870,19 +9870,19 @@
         <v>2.55060253829904</v>
       </c>
       <c r="V68" s="36">
-        <v>2.5435590965137398</v>
+        <v>2.5435590965137602</v>
       </c>
       <c r="W68" s="36">
         <v>2.5498810990449701</v>
       </c>
       <c r="X68" s="36">
-        <v>0.50238290465549995</v>
+        <v>0.50238290465546998</v>
       </c>
       <c r="Y68" s="36">
         <v>2.41682304157735</v>
       </c>
       <c r="Z68" s="36">
-        <v>2.5355964455723101</v>
+        <v>2.5355964455723301</v>
       </c>
       <c r="AA68" s="36">
         <v>2.5563172282251601</v>
@@ -9891,7 +9891,7 @@
         <v>2.52188198940047</v>
       </c>
       <c r="AC68" s="36">
-        <v>2.5127911234293698</v>
+        <v>2.5127911234293498</v>
       </c>
       <c r="AD68" s="36">
         <v>2.5154348788310998</v>
@@ -9909,10 +9909,10 @@
         <v>2.3194634493938899</v>
       </c>
       <c r="AI68" s="36">
-        <v>2.2741838866639399</v>
+        <v>2.2741838866639599</v>
       </c>
       <c r="AJ68" s="36">
-        <v>2.2718032291786998</v>
+        <v>2.2718032291786798</v>
       </c>
       <c r="AK68" s="36">
         <v>2.2665126918071499</v>
@@ -9941,124 +9941,124 @@
         <v>126</v>
       </c>
       <c r="C69" s="36">
-        <v>2.97431350870374</v>
+        <v>3.0863707907476301</v>
       </c>
       <c r="D69" s="36">
-        <v>2.8873576836483599</v>
+        <v>3.03266004187368</v>
       </c>
       <c r="E69" s="36">
-        <v>2.89675126309099</v>
+        <v>2.94710396122397</v>
       </c>
       <c r="F69" s="36">
-        <v>2.77723349736356</v>
+        <v>2.9270770744757302</v>
       </c>
       <c r="G69" s="36">
-        <v>1.6044429508214899</v>
+        <v>2.6301169499128001</v>
       </c>
       <c r="H69" s="36">
-        <v>1.7723248350537899</v>
+        <v>2.5727679074076599</v>
       </c>
       <c r="I69" s="36">
-        <v>3.2462266181046102</v>
+        <v>2.8160525140286099</v>
       </c>
       <c r="J69" s="36">
-        <v>3.2007718598112498</v>
+        <v>2.682641971292</v>
       </c>
       <c r="K69" s="36">
-        <v>2.7545911272709902</v>
+        <v>2.6397075638872698</v>
       </c>
       <c r="L69" s="36">
-        <v>2.7301370643509899</v>
+        <v>2.7847363745344702</v>
       </c>
       <c r="M69" s="36">
-        <v>2.7936506772773</v>
+        <v>2.8407041351790698</v>
       </c>
       <c r="N69" s="36">
-        <v>2.80872222950872</v>
+        <v>2.8906561530991399</v>
       </c>
       <c r="O69" s="36">
-        <v>2.8423570867791801</v>
+        <v>2.9260466619994498</v>
       </c>
       <c r="P69" s="36">
-        <v>2.9033136356778</v>
+        <v>2.93036840283825</v>
       </c>
       <c r="Q69" s="36">
-        <v>2.9468444654468202</v>
+        <v>2.9721804325266499</v>
       </c>
       <c r="R69" s="36">
-        <v>2.9542165782580301</v>
+        <v>3.0216137820073801</v>
       </c>
       <c r="S69" s="36">
-        <v>2.9625420361727901</v>
+        <v>3.0511141370722199</v>
       </c>
       <c r="T69" s="36">
-        <v>2.9727404820904599</v>
+        <v>3.0676114703463999</v>
       </c>
       <c r="U69" s="36">
-        <v>2.9774127212937</v>
+        <v>3.0657085533915001</v>
       </c>
       <c r="V69" s="36">
-        <v>2.9551570154169302</v>
+        <v>3.0489631578016998</v>
       </c>
       <c r="W69" s="36">
-        <v>2.91311267240861</v>
+        <v>3.0382701178471399</v>
       </c>
       <c r="X69" s="36">
-        <v>10.2718536597617</v>
+        <v>8.0469188410409007</v>
       </c>
       <c r="Y69" s="36">
-        <v>2.9484664619980201</v>
+        <v>3.09278921242282</v>
       </c>
       <c r="Z69" s="36">
-        <v>2.8983000573660198</v>
+        <v>3.0755834004853502</v>
       </c>
       <c r="AA69" s="36">
-        <v>2.7110074058301201</v>
+        <v>2.9593993978699098</v>
       </c>
       <c r="AB69" s="36">
-        <v>2.63548141425174</v>
+        <v>2.8905101097588002</v>
       </c>
       <c r="AC69" s="36">
-        <v>2.64558429103452</v>
+        <v>2.92384918213151</v>
       </c>
       <c r="AD69" s="36">
-        <v>2.5386866499562202</v>
+        <v>2.8448847379019</v>
       </c>
       <c r="AE69" s="36">
-        <v>2.5605841316453701</v>
+        <v>2.8055640905399999</v>
       </c>
       <c r="AF69" s="36">
-        <v>2.6909966701118302</v>
+        <v>2.8666052794078101</v>
       </c>
       <c r="AG69" s="36">
-        <v>2.71903116022352</v>
+        <v>2.8989487071595401</v>
       </c>
       <c r="AH69" s="36">
-        <v>2.6492684584686499</v>
+        <v>2.8517718096564599</v>
       </c>
       <c r="AI69" s="36">
-        <v>2.5827931684987702</v>
+        <v>2.7994452530823999</v>
       </c>
       <c r="AJ69" s="36">
-        <v>2.5391230164629301</v>
+        <v>2.7825941515168302</v>
       </c>
       <c r="AK69" s="36">
-        <v>2.5230856603299499</v>
+        <v>2.7739237059653901</v>
       </c>
       <c r="AL69" s="36">
-        <v>2.4974270936954301</v>
+        <v>2.7509838982792401</v>
       </c>
       <c r="AM69" s="36">
-        <v>2.4699653132371502</v>
+        <v>2.72445842585776</v>
       </c>
       <c r="AN69" s="36">
-        <v>2.4460592780208201</v>
+        <v>2.7014521015040498</v>
       </c>
       <c r="AO69" s="36">
-        <v>2.42064259351891</v>
+        <v>2.6767858329292702</v>
       </c>
       <c r="AP69" s="37">
-        <v>2.47142957691617</v>
+        <v>2.7255150039488201</v>
       </c>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.35">
@@ -10224,13 +10224,13 @@
         <v>2.7035277634086099</v>
       </c>
       <c r="L71" s="36">
-        <v>2.6736111607194002</v>
+        <v>2.6736111607194202</v>
       </c>
       <c r="M71" s="36">
         <v>2.7074633523604499</v>
       </c>
       <c r="N71" s="36">
-        <v>2.78057582774882</v>
+        <v>2.7805758277488</v>
       </c>
       <c r="O71" s="36">
         <v>2.8100963166857</v>
@@ -10248,10 +10248,10 @@
         <v>2.80704494022828</v>
       </c>
       <c r="T71" s="36">
-        <v>2.80495070921936</v>
+        <v>2.8049507092193302</v>
       </c>
       <c r="U71" s="36">
-        <v>2.8029531054420098</v>
+        <v>2.8029531054420298</v>
       </c>
       <c r="V71" s="36">
         <v>2.7970990418475501</v>
@@ -10290,10 +10290,10 @@
         <v>2.5884084510142</v>
       </c>
       <c r="AH71" s="36">
-        <v>2.5526594828677802</v>
+        <v>2.5526594828677598</v>
       </c>
       <c r="AI71" s="36">
-        <v>2.5172379487285301</v>
+        <v>2.5172379487285599</v>
       </c>
       <c r="AJ71" s="36">
         <v>2.5113687932343001</v>
@@ -10305,10 +10305,10 @@
         <v>2.4816367957185999</v>
       </c>
       <c r="AM71" s="36">
-        <v>2.45410890350957</v>
+        <v>2.45410890350959</v>
       </c>
       <c r="AN71" s="36">
-        <v>2.4271113917646101</v>
+        <v>2.4271113917645901</v>
       </c>
       <c r="AO71" s="36">
         <v>2.4003099771119798</v>
@@ -10394,31 +10394,31 @@
         <v>2.7041206685911399</v>
       </c>
       <c r="Z72" s="36">
-        <v>2.7275606111611301</v>
+        <v>2.7275606111611101</v>
       </c>
       <c r="AA72" s="36">
-        <v>2.6456735849814201</v>
+        <v>2.6456735849814499</v>
       </c>
       <c r="AB72" s="36">
         <v>2.63283686179552</v>
       </c>
       <c r="AC72" s="36">
-        <v>2.6681517907986199</v>
+        <v>2.6681517907986501</v>
       </c>
       <c r="AD72" s="36">
-        <v>2.6245775755254299</v>
+        <v>2.6245775755254099</v>
       </c>
       <c r="AE72" s="36">
-        <v>2.6103955770085499</v>
+        <v>2.6103955770085299</v>
       </c>
       <c r="AF72" s="36">
-        <v>2.6732038833086502</v>
+        <v>2.6732038833086702</v>
       </c>
       <c r="AG72" s="36">
-        <v>2.67703322663959</v>
+        <v>2.67703322663961</v>
       </c>
       <c r="AH72" s="36">
-        <v>2.5976534953092298</v>
+        <v>2.5976534953092001</v>
       </c>
       <c r="AI72" s="36">
         <v>2.5248639986564601</v>
@@ -10462,10 +10462,10 @@
         <v>2.5988360216608202</v>
       </c>
       <c r="F73" s="36">
-        <v>2.6003272255059202</v>
+        <v>2.60032722550587</v>
       </c>
       <c r="G73" s="36">
-        <v>3.0009833160922201</v>
+        <v>3.0009833160922401</v>
       </c>
       <c r="H73" s="36">
         <v>2.8352038041093102</v>
@@ -10965,124 +10965,124 @@
         <v>134</v>
       </c>
       <c r="C77" s="36">
-        <v>1.9005361458493699</v>
+        <v>1.8605114903650399</v>
       </c>
       <c r="D77" s="36">
-        <v>1.8349881254984099</v>
+        <v>1.7941577751714199</v>
       </c>
       <c r="E77" s="36">
-        <v>1.7724917443388699</v>
+        <v>1.7314865289702199</v>
       </c>
       <c r="F77" s="36">
-        <v>1.7314030928905</v>
+        <v>1.69196938589202</v>
       </c>
       <c r="G77" s="36">
-        <v>1.70195839635112</v>
+        <v>1.66483761384204</v>
       </c>
       <c r="H77" s="36">
-        <v>1.6653321490733</v>
+        <v>1.6296046023517501</v>
       </c>
       <c r="I77" s="36">
-        <v>1.62072547672381</v>
+        <v>1.58541690600569</v>
       </c>
       <c r="J77" s="36">
-        <v>1.5831849069403801</v>
+        <v>1.5479160438870201</v>
       </c>
       <c r="K77" s="36">
-        <v>1.54477613701802</v>
+        <v>1.50931021195608</v>
       </c>
       <c r="L77" s="36">
-        <v>1.4957890847939499</v>
+        <v>1.4604724931881301</v>
       </c>
       <c r="M77" s="36">
-        <v>1.4404258117741</v>
+        <v>1.4043792646601501</v>
       </c>
       <c r="N77" s="36">
-        <v>1.38318613052997</v>
+        <v>1.3479309772068899</v>
       </c>
       <c r="O77" s="36">
-        <v>1.32500273560061</v>
+        <v>1.28825254623559</v>
       </c>
       <c r="P77" s="36">
-        <v>1.2593070903024901</v>
+        <v>1.2197146441764699</v>
       </c>
       <c r="Q77" s="36">
-        <v>1.2142333080601</v>
+        <v>1.17519547383842</v>
       </c>
       <c r="R77" s="36">
-        <v>1.1872117390795001</v>
+        <v>1.14902394060503</v>
       </c>
       <c r="S77" s="36">
-        <v>1.14941092486638</v>
+        <v>1.1127354754217</v>
       </c>
       <c r="T77" s="36">
-        <v>1.1079201057619099</v>
+        <v>1.0727966923566701</v>
       </c>
       <c r="U77" s="36">
-        <v>1.06637378742791</v>
+        <v>1.03375554076373</v>
       </c>
       <c r="V77" s="36">
-        <v>1.04178681536169</v>
+        <v>1.01291178058534</v>
       </c>
       <c r="W77" s="36">
-        <v>1.0359802119202799</v>
+        <v>1.00999933049577</v>
       </c>
       <c r="X77" s="36">
-        <v>1.03137201565773</v>
+        <v>1.00803476571774</v>
       </c>
       <c r="Y77" s="36">
-        <v>1.0143819706770001</v>
+        <v>0.9928701859911</v>
       </c>
       <c r="Z77" s="36">
-        <v>0.99142734857598003</v>
+        <v>0.97112412254570002</v>
       </c>
       <c r="AA77" s="36">
-        <v>0.98169381930133004</v>
+        <v>0.96507813478714999</v>
       </c>
       <c r="AB77" s="36">
-        <v>0.97825533740670001</v>
+        <v>0.96740428969967995</v>
       </c>
       <c r="AC77" s="36">
-        <v>0.95948312439357997</v>
+        <v>0.98071516164332995</v>
       </c>
       <c r="AD77" s="36">
-        <v>0.92943565335555001</v>
+        <v>1.04954971387725</v>
       </c>
       <c r="AE77" s="36">
-        <v>0.89152581235390005</v>
+        <v>1.15046999444979</v>
       </c>
       <c r="AF77" s="36">
-        <v>0.84106885917035001</v>
+        <v>1.1210301066313999</v>
       </c>
       <c r="AG77" s="36">
-        <v>0.74876742100371996</v>
+        <v>0.92371926082495004</v>
       </c>
       <c r="AH77" s="36">
-        <v>0.63018468799979999</v>
+        <v>0.74691602406337998</v>
       </c>
       <c r="AI77" s="36">
-        <v>0.58885767664383004</v>
+        <v>0.60468678189075997</v>
       </c>
       <c r="AJ77" s="36">
-        <v>0.66317002272793002</v>
+        <v>0.57764601170375995</v>
       </c>
       <c r="AK77" s="36">
-        <v>0.71327654809725005</v>
+        <v>0.62775120553269004</v>
       </c>
       <c r="AL77" s="36">
-        <v>0.69376740472242004</v>
+        <v>0.61459393824525999</v>
       </c>
       <c r="AM77" s="36">
-        <v>0.67671474783246</v>
+        <v>0.60688239292361001</v>
       </c>
       <c r="AN77" s="36">
-        <v>0.65663234144547999</v>
+        <v>0.59627971561269</v>
       </c>
       <c r="AO77" s="36">
-        <v>0.63254274081157003</v>
+        <v>0.57958524259165001</v>
       </c>
       <c r="AP77" s="37">
-        <v>0.6745828236268</v>
+        <v>0.60501717182502002</v>
       </c>
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.35">
@@ -11093,7 +11093,7 @@
         <v>135</v>
       </c>
       <c r="C78" s="36">
-        <v>0.30671818359538</v>
+        <v>0.30671818359536002</v>
       </c>
       <c r="D78" s="36">
         <v>0.30081225039509002</v>
@@ -11102,10 +11102,10 @@
         <v>0.29288853640554002</v>
       </c>
       <c r="F78" s="36">
-        <v>0.26219065544952003</v>
+        <v>0.26219065544955</v>
       </c>
       <c r="G78" s="36">
-        <v>0.22394711323027999</v>
+        <v>0.22394711323026001</v>
       </c>
       <c r="H78" s="36">
         <v>0.17547641592119001</v>
@@ -11120,7 +11120,7 @@
         <v>0.1177170868006</v>
       </c>
       <c r="L78" s="36">
-        <v>0.10976786409527001</v>
+        <v>0.10976786409529</v>
       </c>
       <c r="M78" s="36">
         <v>0.16587431188189</v>
@@ -11135,7 +11135,7 @@
         <v>0.30830058951835998</v>
       </c>
       <c r="Q78" s="36">
-        <v>0.34239777816589001</v>
+        <v>0.34239777816590999</v>
       </c>
       <c r="R78" s="36">
         <v>0.33776187707536998</v>
@@ -11183,7 +11183,7 @@
         <v>0.15388870896415999</v>
       </c>
       <c r="AG78" s="36">
-        <v>5.9202702056329999E-2</v>
+        <v>5.9202702056349997E-2</v>
       </c>
       <c r="AH78" s="36">
         <v>-5.3736611325899998E-2</v>
@@ -11192,7 +11192,7 @@
         <v>0.50886755450809995</v>
       </c>
       <c r="AJ78" s="36">
-        <v>0.35910237841095</v>
+        <v>0.35910237841092002</v>
       </c>
       <c r="AK78" s="36">
         <v>-0.31599862115979999</v>
@@ -11349,124 +11349,124 @@
         <v>137</v>
       </c>
       <c r="C80" s="42">
-        <v>2.7041406959891399</v>
+        <v>2.7764795422911401</v>
       </c>
       <c r="D80" s="42">
-        <v>2.6792824705334599</v>
+        <v>2.8284111685444899</v>
       </c>
       <c r="E80" s="42">
-        <v>2.6715738109801102</v>
+        <v>2.8766304850869302</v>
       </c>
       <c r="F80" s="42">
-        <v>2.59407893621901</v>
+        <v>2.6035686030522198</v>
       </c>
       <c r="G80" s="42">
-        <v>2.5714146167360199</v>
+        <v>2.5063333354755901</v>
       </c>
       <c r="H80" s="42">
-        <v>2.6088310250962401</v>
+        <v>2.64182685461205</v>
       </c>
       <c r="I80" s="42">
-        <v>2.55439935203492</v>
+        <v>2.5461852754898699</v>
       </c>
       <c r="J80" s="42">
-        <v>2.4880313212335401</v>
+        <v>2.3695795555107799</v>
       </c>
       <c r="K80" s="42">
-        <v>2.4556273149056498</v>
+        <v>2.29217735051586</v>
       </c>
       <c r="L80" s="42">
-        <v>2.4640453163061702</v>
+        <v>2.2667336851193598</v>
       </c>
       <c r="M80" s="42">
-        <v>2.5382157347685599</v>
+        <v>2.3622960890853801</v>
       </c>
       <c r="N80" s="42">
-        <v>2.57613074388281</v>
+        <v>2.37873047994586</v>
       </c>
       <c r="O80" s="42">
-        <v>2.5794965002949399</v>
+        <v>2.3293808387291799</v>
       </c>
       <c r="P80" s="42">
-        <v>2.6306392145164099</v>
+        <v>2.4532443589325701</v>
       </c>
       <c r="Q80" s="42">
-        <v>2.6878302060568098</v>
+        <v>2.6079486833096501</v>
       </c>
       <c r="R80" s="42">
-        <v>2.6739017136241801</v>
+        <v>2.5721494041609301</v>
       </c>
       <c r="S80" s="42">
-        <v>2.66908721595096</v>
+        <v>2.5543346913348799</v>
       </c>
       <c r="T80" s="42">
-        <v>2.7014388343601201</v>
+        <v>2.6195658563060502</v>
       </c>
       <c r="U80" s="42">
-        <v>2.7282533000467302</v>
+        <v>2.6761415181768999</v>
       </c>
       <c r="V80" s="42">
-        <v>2.77058083160615</v>
+        <v>2.7808508560688501</v>
       </c>
       <c r="W80" s="42">
-        <v>2.7972117547546</v>
+        <v>2.8241002468688299</v>
       </c>
       <c r="X80" s="42">
-        <v>2.6351153646423402</v>
+        <v>13.867564696277499</v>
       </c>
       <c r="Y80" s="42">
-        <v>2.62861415017217</v>
+        <v>2.5559371217378102</v>
       </c>
       <c r="Z80" s="42">
-        <v>2.7634932264816001</v>
+        <v>2.9163879882505999</v>
       </c>
       <c r="AA80" s="42">
-        <v>2.70987801076503</v>
+        <v>2.6051716130939901</v>
       </c>
       <c r="AB80" s="42">
-        <v>2.6215179441198901</v>
+        <v>2.4139626532071898</v>
       </c>
       <c r="AC80" s="42">
-        <v>2.5902521827335701</v>
+        <v>2.3018997164557602</v>
       </c>
       <c r="AD80" s="42">
-        <v>2.6051814361582899</v>
+        <v>2.0734117974739301</v>
       </c>
       <c r="AE80" s="42">
-        <v>2.5718382461271698</v>
+        <v>2.1855539058706501</v>
       </c>
       <c r="AF80" s="42">
-        <v>2.51573290534186</v>
+        <v>2.4027839449320498</v>
       </c>
       <c r="AG80" s="42">
-        <v>2.47042973376672</v>
+        <v>2.3888508351705502</v>
       </c>
       <c r="AH80" s="42">
-        <v>2.4241093782307699</v>
+        <v>2.3133970728566902</v>
       </c>
       <c r="AI80" s="42">
-        <v>2.3927379186992499</v>
+        <v>2.2945443909974599</v>
       </c>
       <c r="AJ80" s="42">
-        <v>2.3749122366310198</v>
+        <v>2.25549218003676</v>
       </c>
       <c r="AK80" s="42">
-        <v>2.3480704752427699</v>
+        <v>2.22549960838623</v>
       </c>
       <c r="AL80" s="42">
-        <v>2.3157421788444901</v>
+        <v>2.1848808312424199</v>
       </c>
       <c r="AM80" s="42">
-        <v>2.2805252426046301</v>
+        <v>2.14521459439898</v>
       </c>
       <c r="AN80" s="42">
-        <v>2.2490125623723798</v>
+        <v>2.1109041854741699</v>
       </c>
       <c r="AO80" s="42">
-        <v>2.21739778619146</v>
+        <v>2.0799782617612301</v>
       </c>
       <c r="AP80" s="43">
-        <v>2.2821391218807299</v>
+        <v>2.1492824093570801</v>
       </c>
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.35">
@@ -11605,124 +11605,124 @@
         <v>139</v>
       </c>
       <c r="C82" s="36">
-        <v>2.7447282339114798</v>
+        <v>2.7314592490101002</v>
       </c>
       <c r="D82" s="36">
-        <v>2.6353138282836999</v>
+        <v>2.6287869006980999</v>
       </c>
       <c r="E82" s="36">
-        <v>2.5501579656658402</v>
+        <v>2.5510852617969499</v>
       </c>
       <c r="F82" s="36">
-        <v>2.5509295629603699</v>
+        <v>2.5570910684731101</v>
       </c>
       <c r="G82" s="36">
-        <v>2.5009543261058398</v>
+        <v>2.51846247750187</v>
       </c>
       <c r="H82" s="36">
-        <v>2.4999370212854601</v>
+        <v>2.51467111405108</v>
       </c>
       <c r="I82" s="36">
-        <v>2.5411835537613001</v>
+        <v>2.5441029139674902</v>
       </c>
       <c r="J82" s="36">
-        <v>2.4835600484837399</v>
+        <v>2.4952461443779099</v>
       </c>
       <c r="K82" s="36">
-        <v>2.4533502905772302</v>
+        <v>2.4688212130393099</v>
       </c>
       <c r="L82" s="36">
-        <v>2.4593869772048</v>
+        <v>2.4783444390708498</v>
       </c>
       <c r="M82" s="36">
-        <v>2.46786070877778</v>
+        <v>2.4955749309484698</v>
       </c>
       <c r="N82" s="36">
-        <v>2.4828572015835202</v>
+        <v>2.5163000636188899</v>
       </c>
       <c r="O82" s="36">
-        <v>2.5009760593808399</v>
+        <v>2.5368341500198599</v>
       </c>
       <c r="P82" s="36">
-        <v>2.49406922917714</v>
+        <v>2.5327982929755701</v>
       </c>
       <c r="Q82" s="36">
-        <v>2.4983696968645202</v>
+        <v>2.5369272335681798</v>
       </c>
       <c r="R82" s="36">
-        <v>2.5194776230947902</v>
+        <v>2.5543135072635401</v>
       </c>
       <c r="S82" s="36">
-        <v>2.5395313053553998</v>
+        <v>2.5714872737777599</v>
       </c>
       <c r="T82" s="36">
-        <v>2.5656219137306899</v>
+        <v>2.5956363646554701</v>
       </c>
       <c r="U82" s="36">
-        <v>2.5785934042873699</v>
+        <v>2.6082145998939801</v>
       </c>
       <c r="V82" s="36">
-        <v>2.5702844939972098</v>
+        <v>2.60264538366068</v>
       </c>
       <c r="W82" s="36">
-        <v>2.5785258301515701</v>
+        <v>2.6124740692717001</v>
       </c>
       <c r="X82" s="36">
-        <v>2.5912989134151601</v>
+        <v>1.5650051408175401</v>
       </c>
       <c r="Y82" s="36">
-        <v>2.5891349709289599</v>
+        <v>2.6028856453776301</v>
       </c>
       <c r="Z82" s="36">
-        <v>2.6099911728205898</v>
+        <v>2.6185546160277799</v>
       </c>
       <c r="AA82" s="36">
-        <v>2.62148535323337</v>
+        <v>2.6463300819268301</v>
       </c>
       <c r="AB82" s="36">
-        <v>2.6373279832248202</v>
+        <v>2.6562740852321198</v>
       </c>
       <c r="AC82" s="36">
-        <v>2.5800472805967098</v>
+        <v>2.6114075454464398</v>
       </c>
       <c r="AD82" s="36">
-        <v>2.51316829921333</v>
+        <v>2.5824924672886298</v>
       </c>
       <c r="AE82" s="36">
-        <v>2.5148453115338301</v>
+        <v>2.5634711413423199</v>
       </c>
       <c r="AF82" s="36">
-        <v>2.5017760501189898</v>
+        <v>2.5155245739079599</v>
       </c>
       <c r="AG82" s="36">
-        <v>2.4892144105016301</v>
+        <v>2.4945104315644802</v>
       </c>
       <c r="AH82" s="36">
-        <v>2.4270927177001602</v>
+        <v>2.4378757742475701</v>
       </c>
       <c r="AI82" s="36">
-        <v>2.3671717885889398</v>
+        <v>2.3812482606548002</v>
       </c>
       <c r="AJ82" s="36">
-        <v>2.3636373158224999</v>
+        <v>2.3775690508617302</v>
       </c>
       <c r="AK82" s="36">
-        <v>2.3692337228118099</v>
+        <v>2.37826137595383</v>
       </c>
       <c r="AL82" s="36">
-        <v>2.35385178916157</v>
+        <v>2.3609753639324902</v>
       </c>
       <c r="AM82" s="36">
-        <v>2.3251131404883099</v>
+        <v>2.3316199188844</v>
       </c>
       <c r="AN82" s="36">
-        <v>2.2982140423680999</v>
+        <v>2.3042338460696601</v>
       </c>
       <c r="AO82" s="36">
-        <v>2.2710643535862198</v>
+        <v>2.27626778968708</v>
       </c>
       <c r="AP82" s="37">
-        <v>2.3234891505905302</v>
+        <v>2.3302649725489601</v>
       </c>
     </row>
     <row r="83" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11736,16 +11736,16 @@
         <v>1.6422624939342001</v>
       </c>
       <c r="D83" s="39">
-        <v>1.5607543011679601</v>
+        <v>1.5607543011680001</v>
       </c>
       <c r="E83" s="39">
-        <v>1.4555385753062899</v>
+        <v>1.45553857530623</v>
       </c>
       <c r="F83" s="39">
         <v>1.4158967286586699</v>
       </c>
       <c r="G83" s="39">
-        <v>1.3756917481073401</v>
+        <v>1.37569174810737</v>
       </c>
       <c r="H83" s="39">
         <v>1.3287686043820699</v>
@@ -11757,28 +11757,28 @@
         <v>1.25603403642747</v>
       </c>
       <c r="K83" s="39">
-        <v>1.22600547035643</v>
+        <v>1.22600547035645</v>
       </c>
       <c r="L83" s="39">
         <v>1.19214594914046</v>
       </c>
       <c r="M83" s="39">
-        <v>1.1733359749786201</v>
+        <v>1.1733359749786001</v>
       </c>
       <c r="N83" s="39">
-        <v>1.15988584935716</v>
+        <v>1.15988584935713</v>
       </c>
       <c r="O83" s="39">
-        <v>1.1401179259990399</v>
+        <v>1.1401179259990599</v>
       </c>
       <c r="P83" s="39">
-        <v>1.1130936985051201</v>
+        <v>1.1130936985051001</v>
       </c>
       <c r="Q83" s="39">
         <v>1.0836643688991501</v>
       </c>
       <c r="R83" s="39">
-        <v>1.05808213865046</v>
+        <v>1.05808213865048</v>
       </c>
       <c r="S83" s="39">
         <v>1.0435874734439099</v>
@@ -11787,10 +11787,10 @@
         <v>1.0351131745313999</v>
       </c>
       <c r="U83" s="39">
-        <v>1.00856851304665</v>
+        <v>1.00856851304663</v>
       </c>
       <c r="V83" s="39">
-        <v>0.9956669791221</v>
+        <v>0.99566697912211999</v>
       </c>
       <c r="W83" s="39">
         <v>0.99287807977654996</v>
@@ -11799,10 +11799,10 @@
         <v>0.98469399384873002</v>
       </c>
       <c r="Y83" s="39">
-        <v>0.97083528548343001</v>
+        <v>0.97083528548344999</v>
       </c>
       <c r="Z83" s="39">
-        <v>0.93830360772176002</v>
+        <v>0.93830360772174004</v>
       </c>
       <c r="AA83" s="39">
         <v>0.91140896266728</v>
@@ -11814,10 +11814,10 @@
         <v>0.85813837284534</v>
       </c>
       <c r="AD83" s="39">
-        <v>0.85454605361501002</v>
+        <v>0.85454605361499003</v>
       </c>
       <c r="AE83" s="39">
-        <v>0.80573863387081002</v>
+        <v>0.80573863387083</v>
       </c>
       <c r="AF83" s="39">
         <v>0.75227805980110996</v>
@@ -11832,7 +11832,7 @@
         <v>0.47882578016649002</v>
       </c>
       <c r="AJ83" s="39">
-        <v>0.52545156513574998</v>
+        <v>0.52545156513576996</v>
       </c>
       <c r="AK83" s="39">
         <v>0.56825591786737994</v>
@@ -11861,124 +11861,124 @@
         <v>141</v>
       </c>
       <c r="C84" s="42">
-        <v>2.6777255124514001</v>
+        <v>2.6754376594091198</v>
       </c>
       <c r="D84" s="42">
-        <v>2.6678452691714098</v>
+        <v>2.6633665272158802</v>
       </c>
       <c r="E84" s="42">
-        <v>2.68725268492447</v>
+        <v>2.68015240285788</v>
       </c>
       <c r="F84" s="42">
-        <v>2.6623088675603102</v>
+        <v>2.6552062332531898</v>
       </c>
       <c r="G84" s="42">
-        <v>2.5856019224784998</v>
+        <v>2.5816292213164802</v>
       </c>
       <c r="H84" s="42">
-        <v>2.7850644171232499</v>
+        <v>2.7754901762833102</v>
       </c>
       <c r="I84" s="42">
-        <v>3.0365196436504398</v>
+        <v>3.0201653302929001</v>
       </c>
       <c r="J84" s="42">
-        <v>2.8960609379733402</v>
+        <v>2.88681857017079</v>
       </c>
       <c r="K84" s="42">
-        <v>2.7994207363839498</v>
+        <v>2.7938965476542998</v>
       </c>
       <c r="L84" s="42">
-        <v>2.85520366293661</v>
+        <v>2.8490457010394099</v>
       </c>
       <c r="M84" s="42">
-        <v>2.8961803800979098</v>
+        <v>2.8933926765217102</v>
       </c>
       <c r="N84" s="42">
-        <v>2.9427867316424101</v>
+        <v>2.9458064565269302</v>
       </c>
       <c r="O84" s="42">
-        <v>2.9751693660623002</v>
+        <v>2.9791098852849398</v>
       </c>
       <c r="P84" s="42">
-        <v>2.97443602266911</v>
+        <v>2.9794350839704302</v>
       </c>
       <c r="Q84" s="42">
-        <v>2.9955179525054798</v>
+        <v>3.0027255125493699</v>
       </c>
       <c r="R84" s="42">
-        <v>3.0156091448175601</v>
+        <v>3.0264693398550202</v>
       </c>
       <c r="S84" s="42">
-        <v>3.0215121342132001</v>
+        <v>3.03681620841594</v>
       </c>
       <c r="T84" s="42">
-        <v>3.0481474388394298</v>
+        <v>3.0651610460741501</v>
       </c>
       <c r="U84" s="42">
-        <v>3.05692841039036</v>
+        <v>3.0749904463401698</v>
       </c>
       <c r="V84" s="42">
-        <v>3.0463666408638601</v>
+        <v>3.06432981517086</v>
       </c>
       <c r="W84" s="42">
-        <v>3.0340967386944602</v>
+        <v>3.0506594556070801</v>
       </c>
       <c r="X84" s="42">
-        <v>2.9876560394331402</v>
+        <v>3.0018324882305798</v>
       </c>
       <c r="Y84" s="42">
-        <v>2.9537805337313898</v>
+        <v>2.9666053987593899</v>
       </c>
       <c r="Z84" s="42">
-        <v>2.9690993131765899</v>
+        <v>2.9804863613289498</v>
       </c>
       <c r="AA84" s="42">
-        <v>2.9355028197994901</v>
+        <v>2.9472042431326599</v>
       </c>
       <c r="AB84" s="42">
-        <v>2.8937340972622398</v>
+        <v>2.9049846575251999</v>
       </c>
       <c r="AC84" s="42">
-        <v>2.9327920977574999</v>
+        <v>2.9413363053149499</v>
       </c>
       <c r="AD84" s="42">
-        <v>2.9240484305810299</v>
+        <v>2.9317678176502602</v>
       </c>
       <c r="AE84" s="42">
-        <v>2.89948484850142</v>
+        <v>2.9062885213465801</v>
       </c>
       <c r="AF84" s="42">
-        <v>2.9175422357943699</v>
+        <v>2.9219543986880301</v>
       </c>
       <c r="AG84" s="42">
-        <v>2.9095056495560501</v>
+        <v>2.91171103589671</v>
       </c>
       <c r="AH84" s="42">
-        <v>2.8526236164300398</v>
+        <v>2.8535652342103002</v>
       </c>
       <c r="AI84" s="42">
-        <v>2.7943537956290498</v>
+        <v>2.79442103219594</v>
       </c>
       <c r="AJ84" s="42">
-        <v>2.78016058463013</v>
+        <v>2.7794346458355199</v>
       </c>
       <c r="AK84" s="42">
-        <v>2.7705330760478901</v>
+        <v>2.7697520683286601</v>
       </c>
       <c r="AL84" s="42">
-        <v>2.7448110892656299</v>
+        <v>2.7435980721906201</v>
       </c>
       <c r="AM84" s="42">
-        <v>2.71386425530922</v>
+        <v>2.7123533154080701</v>
       </c>
       <c r="AN84" s="42">
-        <v>2.6830796889099999</v>
+        <v>2.6816543150101499</v>
       </c>
       <c r="AO84" s="42">
-        <v>2.65145809237355</v>
+        <v>2.64984756259115</v>
       </c>
       <c r="AP84" s="43">
-        <v>2.71274047295667</v>
+        <v>2.7114321910880301</v>
       </c>
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.35">
@@ -12117,124 +12117,124 @@
         <v>143</v>
       </c>
       <c r="C86" s="36">
-        <v>2.72064808140202</v>
+        <v>2.72325507846312</v>
       </c>
       <c r="D86" s="36">
-        <v>2.6374614168967399</v>
+        <v>2.63999188088115</v>
       </c>
       <c r="E86" s="36">
-        <v>2.56257348980091</v>
+        <v>2.5648711683109</v>
       </c>
       <c r="F86" s="36">
-        <v>2.5763670592674002</v>
+        <v>2.5795430919325302</v>
       </c>
       <c r="G86" s="36">
-        <v>2.5606115451019198</v>
+        <v>2.56290807774469</v>
       </c>
       <c r="H86" s="36">
-        <v>2.4515679529753598</v>
+        <v>2.4509963442238298</v>
       </c>
       <c r="I86" s="36">
-        <v>2.3298115529736299</v>
+        <v>2.3258047749605799</v>
       </c>
       <c r="J86" s="36">
-        <v>2.3325312605187301</v>
+        <v>2.3266191857859799</v>
       </c>
       <c r="K86" s="36">
-        <v>2.35827801703581</v>
+        <v>2.35240343545424</v>
       </c>
       <c r="L86" s="36">
-        <v>2.3447319790784098</v>
+        <v>2.3377524608034999</v>
       </c>
       <c r="M86" s="36">
-        <v>2.3681924191837802</v>
+        <v>2.3583205336250801</v>
       </c>
       <c r="N86" s="36">
-        <v>2.37288924741177</v>
+        <v>2.3577231565481598</v>
       </c>
       <c r="O86" s="36">
-        <v>2.3709984508316202</v>
+        <v>2.35426437234698</v>
       </c>
       <c r="P86" s="36">
-        <v>2.3788066783608102</v>
+        <v>2.3613566704872699</v>
       </c>
       <c r="Q86" s="36">
-        <v>2.38894538108321</v>
+        <v>2.36944973457345</v>
       </c>
       <c r="R86" s="36">
-        <v>2.3923442807549899</v>
+        <v>2.3695350703954601</v>
       </c>
       <c r="S86" s="36">
-        <v>2.4112782508365602</v>
+        <v>2.3851880191657902</v>
       </c>
       <c r="T86" s="36">
-        <v>2.4356995094398002</v>
+        <v>2.4080090864507802</v>
       </c>
       <c r="U86" s="36">
-        <v>2.44182808590983</v>
+        <v>2.4130092722215202</v>
       </c>
       <c r="V86" s="36">
-        <v>2.4468423165720399</v>
+        <v>2.41821339539892</v>
       </c>
       <c r="W86" s="36">
-        <v>2.4753351048465899</v>
+        <v>2.4485507969916398</v>
       </c>
       <c r="X86" s="36">
-        <v>2.5243620776735298</v>
+        <v>2.5016171669249401</v>
       </c>
       <c r="Y86" s="36">
-        <v>2.5343106650252101</v>
+        <v>2.5135808815818201</v>
       </c>
       <c r="Z86" s="36">
-        <v>2.5304480087619701</v>
+        <v>2.51024234424575</v>
       </c>
       <c r="AA86" s="36">
-        <v>2.5280580907047998</v>
+        <v>2.50827055734322</v>
       </c>
       <c r="AB86" s="36">
-        <v>2.5008167863224799</v>
+        <v>2.48164538240778</v>
       </c>
       <c r="AC86" s="36">
-        <v>2.4737160933840898</v>
+        <v>2.4548917123523402</v>
       </c>
       <c r="AD86" s="36">
-        <v>2.43879565866707</v>
+        <v>2.4198339727168299</v>
       </c>
       <c r="AE86" s="36">
-        <v>2.36956161339323</v>
+        <v>2.3500427192113098</v>
       </c>
       <c r="AF86" s="36">
-        <v>2.3056233077036499</v>
+        <v>2.2857470522383401</v>
       </c>
       <c r="AG86" s="36">
-        <v>2.2793972928768902</v>
+        <v>2.2607056768029699</v>
       </c>
       <c r="AH86" s="36">
-        <v>2.2318504840726399</v>
+        <v>2.21432762645397</v>
       </c>
       <c r="AI86" s="36">
-        <v>2.1881249316173701</v>
+        <v>2.1716115280558301</v>
       </c>
       <c r="AJ86" s="36">
-        <v>2.1807087051503</v>
+        <v>2.1649445529682501</v>
       </c>
       <c r="AK86" s="36">
-        <v>2.1700678801269202</v>
+        <v>2.1542309864871498</v>
       </c>
       <c r="AL86" s="36">
-        <v>2.14558659779884</v>
+        <v>2.1300589541755102</v>
       </c>
       <c r="AM86" s="36">
-        <v>2.1139638002764598</v>
+        <v>2.09858430122818</v>
       </c>
       <c r="AN86" s="36">
-        <v>2.0860321383599199</v>
+        <v>2.0705737388401002</v>
       </c>
       <c r="AO86" s="36">
-        <v>2.0583124590940298</v>
+        <v>2.0430380634862</v>
       </c>
       <c r="AP86" s="37">
-        <v>2.1147847197332799</v>
+        <v>2.0992894177144699</v>
       </c>
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.35">
@@ -12245,124 +12245,124 @@
         <v>144</v>
       </c>
       <c r="C87" s="36">
-        <v>2.2071022153205901</v>
+        <v>2.2065176140199498</v>
       </c>
       <c r="D87" s="36">
-        <v>2.1631122917392398</v>
+        <v>2.1628356654731999</v>
       </c>
       <c r="E87" s="36">
-        <v>2.0448354830330899</v>
+        <v>2.0450502861721902</v>
       </c>
       <c r="F87" s="36">
-        <v>1.95053472297788</v>
+        <v>1.9505443842169099</v>
       </c>
       <c r="G87" s="36">
-        <v>1.9187186684813899</v>
+        <v>1.9184689761785101</v>
       </c>
       <c r="H87" s="36">
-        <v>1.9153320502741</v>
+        <v>1.91509383258746</v>
       </c>
       <c r="I87" s="36">
-        <v>1.8831446565198</v>
+        <v>1.8830139048854799</v>
       </c>
       <c r="J87" s="36">
-        <v>1.85340785988017</v>
+        <v>1.85314987127043</v>
       </c>
       <c r="K87" s="36">
-        <v>1.8283512112095499</v>
+        <v>1.8279499115075699</v>
       </c>
       <c r="L87" s="36">
-        <v>1.79064920716692</v>
+        <v>1.7902703235438</v>
       </c>
       <c r="M87" s="36">
-        <v>1.7758909330463299</v>
+        <v>1.7754681658406699</v>
       </c>
       <c r="N87" s="36">
-        <v>1.7622134569242001</v>
+        <v>1.76166717495014</v>
       </c>
       <c r="O87" s="36">
-        <v>1.6694456689713799</v>
+        <v>1.66849469489567</v>
       </c>
       <c r="P87" s="36">
-        <v>1.60304105961937</v>
+        <v>1.6022256173909399</v>
       </c>
       <c r="Q87" s="36">
-        <v>1.5861045903495801</v>
+        <v>1.5858501862919601</v>
       </c>
       <c r="R87" s="36">
-        <v>1.527068651649</v>
+        <v>1.526804220969</v>
       </c>
       <c r="S87" s="36">
-        <v>1.4583743864101399</v>
+        <v>1.4585954111330199</v>
       </c>
       <c r="T87" s="36">
-        <v>1.4207679585547299</v>
+        <v>1.4215932329394401</v>
       </c>
       <c r="U87" s="36">
-        <v>1.38619901385921</v>
+        <v>1.386507619127</v>
       </c>
       <c r="V87" s="36">
-        <v>1.3731813985827299</v>
+        <v>1.3728358981078601</v>
       </c>
       <c r="W87" s="36">
-        <v>1.38674433335533</v>
+        <v>1.3855542408926</v>
       </c>
       <c r="X87" s="36">
-        <v>1.3680907631778301</v>
+        <v>1.3671492266835701</v>
       </c>
       <c r="Y87" s="36">
-        <v>1.3288850487750199</v>
+        <v>1.33153494625684</v>
       </c>
       <c r="Z87" s="36">
-        <v>1.28786263641538</v>
+        <v>1.30570661981613</v>
       </c>
       <c r="AA87" s="36">
-        <v>1.24961895257267</v>
+        <v>1.2709415644448501</v>
       </c>
       <c r="AB87" s="36">
-        <v>1.21884178486349</v>
+        <v>1.22065494345565</v>
       </c>
       <c r="AC87" s="36">
-        <v>1.1998936784559699</v>
+        <v>1.1911043252489599</v>
       </c>
       <c r="AD87" s="36">
-        <v>1.1744983073408</v>
+        <v>1.16558685119674</v>
       </c>
       <c r="AE87" s="36">
-        <v>1.1349343252692501</v>
+        <v>1.1259334483921599</v>
       </c>
       <c r="AF87" s="36">
-        <v>1.0902616625239101</v>
+        <v>1.0811371359968001</v>
       </c>
       <c r="AG87" s="36">
-        <v>1.0504416630684199</v>
+        <v>1.04352087779722</v>
       </c>
       <c r="AH87" s="36">
-        <v>0.95048541742119996</v>
+        <v>0.94574914710853997</v>
       </c>
       <c r="AI87" s="36">
-        <v>0.74012952927470999</v>
+        <v>0.73464907777563004</v>
       </c>
       <c r="AJ87" s="36">
-        <v>0.84949821102615997</v>
+        <v>0.84264747613150004</v>
       </c>
       <c r="AK87" s="36">
-        <v>1.0635495050626</v>
+        <v>1.0564345201838701</v>
       </c>
       <c r="AL87" s="36">
-        <v>1.02341843962048</v>
+        <v>1.0169940337082499</v>
       </c>
       <c r="AM87" s="36">
-        <v>0.97830001477343997</v>
+        <v>0.9724974409421</v>
       </c>
       <c r="AN87" s="36">
-        <v>0.93772367309448001</v>
+        <v>0.93276552898534004</v>
       </c>
       <c r="AO87" s="36">
-        <v>0.90669878612461996</v>
+        <v>0.90248827951657995</v>
       </c>
       <c r="AP87" s="37">
-        <v>0.98192222993808997</v>
+        <v>0.97622067514429001</v>
       </c>
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.35">
@@ -12501,124 +12501,124 @@
         <v>146</v>
       </c>
       <c r="C89" s="36">
-        <v>1.59031828459622</v>
+        <v>1.60583462589115</v>
       </c>
       <c r="D89" s="36">
-        <v>1.42043348248979</v>
+        <v>1.4351952909402499</v>
       </c>
       <c r="E89" s="36">
-        <v>1.1860056706694899</v>
+        <v>1.1993185622225999</v>
       </c>
       <c r="F89" s="36">
-        <v>1.1103577915287901</v>
+        <v>1.1246158835523901</v>
       </c>
       <c r="G89" s="36">
-        <v>1.05686546962325</v>
+        <v>1.0708747613598999</v>
       </c>
       <c r="H89" s="36">
-        <v>0.99512496190275002</v>
+        <v>1.00854378420781</v>
       </c>
       <c r="I89" s="36">
-        <v>0.94825241300584995</v>
+        <v>0.96151285461143998</v>
       </c>
       <c r="J89" s="36">
-        <v>0.89886681333606</v>
+        <v>0.91201625830083999</v>
       </c>
       <c r="K89" s="36">
-        <v>0.85923188419429997</v>
+        <v>0.87178377776037996</v>
       </c>
       <c r="L89" s="36">
-        <v>0.82584585608275995</v>
+        <v>0.83748860204306996</v>
       </c>
       <c r="M89" s="36">
-        <v>0.81649645567971996</v>
+        <v>0.82774453430633999</v>
       </c>
       <c r="N89" s="36">
-        <v>0.79985647531046999</v>
+        <v>0.81098882957916996</v>
       </c>
       <c r="O89" s="36">
-        <v>0.76382945944360003</v>
+        <v>0.77590302482024998</v>
       </c>
       <c r="P89" s="36">
-        <v>0.73571415010859997</v>
+        <v>0.74856344028042998</v>
       </c>
       <c r="Q89" s="36">
-        <v>0.72941845408021</v>
+        <v>0.74239232105087005</v>
       </c>
       <c r="R89" s="36">
-        <v>0.73099306893556004</v>
+        <v>0.74414100032206998</v>
       </c>
       <c r="S89" s="36">
-        <v>0.71278454529743995</v>
+        <v>0.72452175012764997</v>
       </c>
       <c r="T89" s="36">
-        <v>0.70381917818396</v>
+        <v>0.71393377704807004</v>
       </c>
       <c r="U89" s="36">
-        <v>0.73621170897020005</v>
+        <v>0.74633809840820997</v>
       </c>
       <c r="V89" s="36">
-        <v>0.77127401754178004</v>
+        <v>0.78170560017903001</v>
       </c>
       <c r="W89" s="36">
-        <v>0.77236985295850002</v>
+        <v>0.78353024520461001</v>
       </c>
       <c r="X89" s="36">
-        <v>0.77574127694146999</v>
+        <v>0.78587373000591998</v>
       </c>
       <c r="Y89" s="36">
-        <v>0.82364928616814004</v>
+        <v>0.82918728363737004</v>
       </c>
       <c r="Z89" s="36">
-        <v>0.86486798829614997</v>
+        <v>0.85441611988826005</v>
       </c>
       <c r="AA89" s="36">
-        <v>0.85476652574028</v>
+        <v>0.84035992387150005</v>
       </c>
       <c r="AB89" s="36">
-        <v>0.78584471923541999</v>
+        <v>0.79175488100458002</v>
       </c>
       <c r="AC89" s="36">
-        <v>0.73049121322083999</v>
+        <v>0.74764476975983996</v>
       </c>
       <c r="AD89" s="36">
-        <v>0.71222116802681001</v>
+        <v>0.72892866541753998</v>
       </c>
       <c r="AE89" s="36">
-        <v>0.62647897579281997</v>
+        <v>0.64206639463159998</v>
       </c>
       <c r="AF89" s="36">
-        <v>0.52240461694255003</v>
+        <v>0.53668681746367997</v>
       </c>
       <c r="AG89" s="36">
-        <v>0.40551962604494002</v>
+        <v>0.41637769206779002</v>
       </c>
       <c r="AH89" s="36">
-        <v>0.26060257423660999</v>
+        <v>0.26912805465429002</v>
       </c>
       <c r="AI89" s="36">
-        <v>0.22644662580835001</v>
+        <v>0.21766082873784001</v>
       </c>
       <c r="AJ89" s="36">
-        <v>0.21886517269447001</v>
+        <v>0.21527211862202</v>
       </c>
       <c r="AK89" s="36">
-        <v>0.17596195963677999</v>
+        <v>0.19252586708318001</v>
       </c>
       <c r="AL89" s="36">
-        <v>0.16796707868687</v>
+        <v>0.18065665004615999</v>
       </c>
       <c r="AM89" s="36">
-        <v>0.15752914377287</v>
+        <v>0.16708381819133</v>
       </c>
       <c r="AN89" s="36">
-        <v>0.14599354654143001</v>
+        <v>0.15267226603659001</v>
       </c>
       <c r="AO89" s="36">
-        <v>0.13053906197331</v>
+        <v>0.13556257682108</v>
       </c>
       <c r="AP89" s="37">
-        <v>0.15559686847692999</v>
+        <v>0.16569821570689</v>
       </c>
     </row>
     <row r="90" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -12629,124 +12629,124 @@
         <v>147</v>
       </c>
       <c r="C90" s="39">
-        <v>0.74188908275687004</v>
+        <v>0.73302299792652004</v>
       </c>
       <c r="D90" s="39">
-        <v>0.77463478908075001</v>
+        <v>0.76076861148853003</v>
       </c>
       <c r="E90" s="39">
-        <v>0.82060242489354995</v>
+        <v>0.80088653291671996</v>
       </c>
       <c r="F90" s="39">
-        <v>0.76195794178377996</v>
+        <v>0.74019443830670995</v>
       </c>
       <c r="G90" s="39">
-        <v>0.71862683990013998</v>
+        <v>0.69725436116105999</v>
       </c>
       <c r="H90" s="39">
-        <v>0.68281244781991002</v>
+        <v>0.66151911791500995</v>
       </c>
       <c r="I90" s="39">
-        <v>0.66632204348793</v>
+        <v>0.64416139738190004</v>
       </c>
       <c r="J90" s="39">
-        <v>0.67608830199155001</v>
+        <v>0.65268864784490999</v>
       </c>
       <c r="K90" s="39">
-        <v>0.66324635789867004</v>
+        <v>0.6404356716363</v>
       </c>
       <c r="L90" s="39">
-        <v>0.64024007408363004</v>
+        <v>0.61881923833750996</v>
       </c>
       <c r="M90" s="39">
-        <v>0.65021611983673</v>
+        <v>0.62910464608118999</v>
       </c>
       <c r="N90" s="39">
-        <v>0.64777221101952998</v>
+        <v>0.62667759789290001</v>
       </c>
       <c r="O90" s="39">
-        <v>0.64153239194501999</v>
+        <v>0.61878847256659997</v>
       </c>
       <c r="P90" s="39">
-        <v>0.65723210142267996</v>
+        <v>0.63176338547236999</v>
       </c>
       <c r="Q90" s="39">
-        <v>0.67339831226947</v>
+        <v>0.64606111645105002</v>
       </c>
       <c r="R90" s="39">
-        <v>0.71562360167075001</v>
+        <v>0.68722402160868001</v>
       </c>
       <c r="S90" s="39">
-        <v>0.78703332822604999</v>
+        <v>0.75864533914134002</v>
       </c>
       <c r="T90" s="39">
-        <v>0.87317437335166004</v>
+        <v>0.84482958626538995</v>
       </c>
       <c r="U90" s="39">
-        <v>0.88960498670956001</v>
+        <v>0.86293157941411003</v>
       </c>
       <c r="V90" s="39">
-        <v>0.81945691400647003</v>
+        <v>0.79599410644994995</v>
       </c>
       <c r="W90" s="39">
-        <v>0.71208961184768005</v>
+        <v>0.69115845997990999</v>
       </c>
       <c r="X90" s="39">
-        <v>0.65516843657688995</v>
+        <v>0.63710121601853997</v>
       </c>
       <c r="Y90" s="39">
-        <v>0.64350976496118995</v>
+        <v>0.62868744265762999</v>
       </c>
       <c r="Z90" s="39">
-        <v>0.60750454271724996</v>
+        <v>0.59464613869948002</v>
       </c>
       <c r="AA90" s="39">
-        <v>0.57215058182012002</v>
+        <v>0.56011858583943996</v>
       </c>
       <c r="AB90" s="39">
-        <v>0.56199488604786996</v>
+        <v>0.54870213748649999</v>
       </c>
       <c r="AC90" s="39">
-        <v>0.56309315300968998</v>
+        <v>0.54836590010804998</v>
       </c>
       <c r="AD90" s="39">
-        <v>0.55058215531512</v>
+        <v>0.53703219093215004</v>
       </c>
       <c r="AE90" s="39">
-        <v>0.52357468853541</v>
+        <v>0.51118463512858003</v>
       </c>
       <c r="AF90" s="39">
-        <v>0.48910311175506999</v>
+        <v>0.47810317057614998</v>
       </c>
       <c r="AG90" s="39">
-        <v>0.27184563088904001</v>
+        <v>0.26477925597777002</v>
       </c>
       <c r="AH90" s="39">
-        <v>0.12319051172834999</v>
+        <v>0.11606144979983</v>
       </c>
       <c r="AI90" s="39">
-        <v>0.38022094397078998</v>
+        <v>0.40493223163408998</v>
       </c>
       <c r="AJ90" s="39">
-        <v>0.37191381719686001</v>
+        <v>0.38872806467072002</v>
       </c>
       <c r="AK90" s="39">
-        <v>0.16342143546675</v>
+        <v>0.14254991426156999</v>
       </c>
       <c r="AL90" s="39">
-        <v>0.17557642744013</v>
+        <v>0.16092802417912999</v>
       </c>
       <c r="AM90" s="39">
-        <v>0.19162368970356</v>
+        <v>0.18171567630964999</v>
       </c>
       <c r="AN90" s="39">
-        <v>0.20211963056773</v>
+        <v>0.19595103539607001</v>
       </c>
       <c r="AO90" s="39">
-        <v>0.20074061059553999</v>
+        <v>0.19612766474102</v>
       </c>
       <c r="AP90" s="40">
-        <v>0.18669523602957</v>
+        <v>0.17545228623657</v>
       </c>
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.35">
@@ -12772,10 +12772,10 @@
         <v>2.7504127991114098</v>
       </c>
       <c r="H91" s="42">
-        <v>2.8093822899013698</v>
+        <v>2.8093822899013299</v>
       </c>
       <c r="I91" s="42">
-        <v>2.89338142622326</v>
+        <v>2.8933814262233302</v>
       </c>
       <c r="J91" s="42">
         <v>2.8082763373456201</v>
@@ -12787,7 +12787,7 @@
         <v>2.8297758631612</v>
       </c>
       <c r="M91" s="42">
-        <v>2.88385419852322</v>
+        <v>2.88385419852324</v>
       </c>
       <c r="N91" s="42">
         <v>2.9156385031509502</v>
@@ -12805,10 +12805,10 @@
         <v>3.0009466365125999</v>
       </c>
       <c r="S91" s="42">
-        <v>3.0167595093623798</v>
+        <v>3.0167595093623998</v>
       </c>
       <c r="T91" s="42">
-        <v>3.0423661899216898</v>
+        <v>3.0423661899216601</v>
       </c>
       <c r="U91" s="42">
         <v>3.0490709826620099</v>
@@ -12850,31 +12850,31 @@
         <v>2.9277433753463802</v>
       </c>
       <c r="AH91" s="42">
-        <v>2.87246367888365</v>
+        <v>2.87246367888363</v>
       </c>
       <c r="AI91" s="42">
         <v>2.8137260310531902</v>
       </c>
       <c r="AJ91" s="42">
-        <v>2.7940521546408599</v>
+        <v>2.7940521546408799</v>
       </c>
       <c r="AK91" s="42">
         <v>2.7830394581948701</v>
       </c>
       <c r="AL91" s="42">
-        <v>2.7550221207866201</v>
+        <v>2.7550221207866401</v>
       </c>
       <c r="AM91" s="42">
-        <v>2.7223735616003899</v>
+        <v>2.7223735616003699</v>
       </c>
       <c r="AN91" s="42">
         <v>2.6906989683747899</v>
       </c>
       <c r="AO91" s="42">
-        <v>2.6584443642795299</v>
+        <v>2.6584443642795099</v>
       </c>
       <c r="AP91" s="43">
-        <v>2.7219061196761301</v>
+        <v>2.7219061196761101</v>
       </c>
     </row>
     <row r="92" spans="1:42" x14ac:dyDescent="0.35">
@@ -13141,124 +13141,124 @@
         <v>151</v>
       </c>
       <c r="C94" s="36">
-        <v>1.67531979641349</v>
+        <v>1.6534549751352099</v>
       </c>
       <c r="D94" s="36">
-        <v>1.7302574070922101</v>
+        <v>1.7078623084515201</v>
       </c>
       <c r="E94" s="36">
-        <v>1.7395256738320399</v>
+        <v>1.71580978104819</v>
       </c>
       <c r="F94" s="36">
-        <v>1.7073434485969801</v>
+        <v>1.6838409801321499</v>
       </c>
       <c r="G94" s="36">
-        <v>1.6606112190840301</v>
+        <v>1.6371428594294599</v>
       </c>
       <c r="H94" s="36">
-        <v>1.6321077880893999</v>
+        <v>1.60895419760434</v>
       </c>
       <c r="I94" s="36">
-        <v>1.6153703379386199</v>
+        <v>1.5927579928906701</v>
       </c>
       <c r="J94" s="36">
-        <v>1.5951726196439699</v>
+        <v>1.57320285074278</v>
       </c>
       <c r="K94" s="36">
-        <v>1.5633481330792101</v>
+        <v>1.54205772516813</v>
       </c>
       <c r="L94" s="36">
-        <v>1.52791258665115</v>
+        <v>1.50752172932671</v>
       </c>
       <c r="M94" s="36">
-        <v>1.4821828848669201</v>
+        <v>1.4627885495475299</v>
       </c>
       <c r="N94" s="36">
-        <v>1.42008049510156</v>
+        <v>1.4016804265612599</v>
       </c>
       <c r="O94" s="36">
-        <v>1.37211566724964</v>
+        <v>1.35535487857148</v>
       </c>
       <c r="P94" s="36">
-        <v>1.3695462906095699</v>
+        <v>1.3290969611827701</v>
       </c>
       <c r="Q94" s="36">
-        <v>1.38716044433282</v>
+        <v>1.2971164985591499</v>
       </c>
       <c r="R94" s="36">
-        <v>1.4536830728569401</v>
+        <v>1.3408574614220099</v>
       </c>
       <c r="S94" s="36">
-        <v>1.5718005867534099</v>
+        <v>1.4633751898490499</v>
       </c>
       <c r="T94" s="36">
-        <v>1.6118787939243699</v>
+        <v>1.5069284924669399</v>
       </c>
       <c r="U94" s="36">
-        <v>1.58704662460179</v>
+        <v>1.48481239499838</v>
       </c>
       <c r="V94" s="36">
-        <v>1.5716814683545799</v>
+        <v>1.4740396572963099</v>
       </c>
       <c r="W94" s="36">
-        <v>1.3843735614356401</v>
+        <v>1.3510989347292199</v>
       </c>
       <c r="X94" s="36">
-        <v>1.2412052843152199</v>
+        <v>1.2717718617043701</v>
       </c>
       <c r="Y94" s="36">
-        <v>1.3008641222544299</v>
+        <v>1.30613685296497</v>
       </c>
       <c r="Z94" s="36">
-        <v>1.32161132392916</v>
+        <v>1.2848077248001999</v>
       </c>
       <c r="AA94" s="36">
-        <v>1.3116490992956</v>
+        <v>1.2534392670716701</v>
       </c>
       <c r="AB94" s="36">
-        <v>1.26475328775291</v>
+        <v>1.20462103247552</v>
       </c>
       <c r="AC94" s="36">
-        <v>1.1886429757166099</v>
+        <v>1.13457241376354</v>
       </c>
       <c r="AD94" s="36">
-        <v>1.1344943193958701</v>
+        <v>1.0812820986770399</v>
       </c>
       <c r="AE94" s="36">
-        <v>1.1318623641972001</v>
+        <v>1.1081976125294699</v>
       </c>
       <c r="AF94" s="36">
-        <v>1.03209227341659</v>
+        <v>1.0462903486191799</v>
       </c>
       <c r="AG94" s="36">
-        <v>0.90788313165516998</v>
+        <v>0.95792935279285996</v>
       </c>
       <c r="AH94" s="36">
-        <v>0.85002815159678002</v>
+        <v>0.89383519410685996</v>
       </c>
       <c r="AI94" s="36">
-        <v>0.83056127499679</v>
+        <v>0.83572898495269998</v>
       </c>
       <c r="AJ94" s="36">
-        <v>0.8546551819089</v>
+        <v>0.85353942822081996</v>
       </c>
       <c r="AK94" s="36">
-        <v>0.84184937015343997</v>
+        <v>0.84073704905514002</v>
       </c>
       <c r="AL94" s="36">
-        <v>0.82306438408105997</v>
+        <v>0.82206988756807997</v>
       </c>
       <c r="AM94" s="36">
-        <v>0.80287870225915003</v>
+        <v>0.80186181129653</v>
       </c>
       <c r="AN94" s="36">
-        <v>0.78242660494046001</v>
+        <v>0.78128216592452004</v>
       </c>
       <c r="AO94" s="36">
-        <v>0.76161499185134995</v>
+        <v>0.76025728591420005</v>
       </c>
       <c r="AP94" s="37">
-        <v>0.80236279698035995</v>
+        <v>0.80123760009412004</v>
       </c>
     </row>
     <row r="95" spans="1:42" x14ac:dyDescent="0.35">
@@ -13275,19 +13275,19 @@
         <v>3.2881305735912298</v>
       </c>
       <c r="E95" s="36">
-        <v>3.2903134081325498</v>
+        <v>3.2903134081326</v>
       </c>
       <c r="F95" s="36">
-        <v>2.6270104488856001</v>
+        <v>2.6270104488855801</v>
       </c>
       <c r="G95" s="36">
-        <v>1.6148091007432801</v>
+        <v>1.6148091007433001</v>
       </c>
       <c r="H95" s="36">
         <v>2.0370407022239898</v>
       </c>
       <c r="I95" s="36">
-        <v>3.26238044210305</v>
+        <v>3.26238044210303</v>
       </c>
       <c r="J95" s="36">
         <v>3.1485972042828898</v>
@@ -13296,16 +13296,16 @@
         <v>2.8078563257600799</v>
       </c>
       <c r="L95" s="36">
-        <v>2.7894111944858402</v>
+        <v>2.78941119448581</v>
       </c>
       <c r="M95" s="36">
         <v>2.73840275974562</v>
       </c>
       <c r="N95" s="36">
-        <v>2.7274263989682601</v>
+        <v>2.7274263989682401</v>
       </c>
       <c r="O95" s="36">
-        <v>2.7909482471448501</v>
+        <v>2.7909482471448799</v>
       </c>
       <c r="P95" s="36">
         <v>2.8711550009343298</v>
@@ -13338,10 +13338,10 @@
         <v>2.97188333249141</v>
       </c>
       <c r="Z95" s="36">
-        <v>2.9293101257098701</v>
+        <v>2.9293101257098502</v>
       </c>
       <c r="AA95" s="36">
-        <v>2.8122170864717</v>
+        <v>2.81221708647172</v>
       </c>
       <c r="AB95" s="36">
         <v>2.7283402529544998</v>
@@ -13350,7 +13350,7 @@
         <v>2.7350123631615402</v>
       </c>
       <c r="AD95" s="36">
-        <v>2.7012966747282898</v>
+        <v>2.70129667472832</v>
       </c>
       <c r="AE95" s="36">
         <v>2.74089226846881</v>
@@ -13359,7 +13359,7 @@
         <v>2.83429756709186</v>
       </c>
       <c r="AG95" s="36">
-        <v>2.8391720262443498</v>
+        <v>2.8391720262443298</v>
       </c>
       <c r="AH95" s="36">
         <v>2.7756085122366199</v>
@@ -13368,10 +13368,10 @@
         <v>2.71076158417325</v>
       </c>
       <c r="AJ95" s="36">
-        <v>2.6828455884653901</v>
+        <v>2.6828455884653701</v>
       </c>
       <c r="AK95" s="36">
-        <v>2.6699354196948</v>
+        <v>2.66993541969482</v>
       </c>
       <c r="AL95" s="36">
         <v>2.6440701007661098</v>
@@ -13525,124 +13525,124 @@
         <v>154</v>
       </c>
       <c r="C97" s="42">
-        <v>2.76327676010597</v>
+        <v>2.7670768418366398</v>
       </c>
       <c r="D97" s="42">
-        <v>2.74580034230523</v>
+        <v>2.75007894227981</v>
       </c>
       <c r="E97" s="42">
-        <v>2.7197843046477002</v>
+        <v>2.7244167078517298</v>
       </c>
       <c r="F97" s="42">
-        <v>2.73112797207824</v>
+        <v>2.7526947169972402</v>
       </c>
       <c r="G97" s="42">
-        <v>3.0711460645092701</v>
+        <v>3.0800128458089899</v>
       </c>
       <c r="H97" s="42">
-        <v>3.0714489502800002</v>
+        <v>3.0593934491927102</v>
       </c>
       <c r="I97" s="42">
-        <v>2.6467714835652201</v>
+        <v>2.6462370375937501</v>
       </c>
       <c r="J97" s="42">
-        <v>2.5995931430156798</v>
+        <v>2.6038345257756399</v>
       </c>
       <c r="K97" s="42">
-        <v>2.71721589957057</v>
+        <v>2.7216738432126499</v>
       </c>
       <c r="L97" s="42">
-        <v>2.77576510680497</v>
+        <v>2.77974404346564</v>
       </c>
       <c r="M97" s="42">
-        <v>2.8225184672441301</v>
+        <v>2.8257065986673702</v>
       </c>
       <c r="N97" s="42">
-        <v>2.85099858438767</v>
+        <v>2.85352137402066</v>
       </c>
       <c r="O97" s="42">
-        <v>2.8541986125502499</v>
+        <v>2.8565488563097698</v>
       </c>
       <c r="P97" s="42">
-        <v>2.8528474105631099</v>
+        <v>2.8553807441674701</v>
       </c>
       <c r="Q97" s="42">
-        <v>2.86937057583041</v>
+        <v>2.8718603361984401</v>
       </c>
       <c r="R97" s="42">
-        <v>2.8818519954351798</v>
+        <v>2.8861029008452799</v>
       </c>
       <c r="S97" s="42">
-        <v>2.89567777027036</v>
+        <v>2.8982802689371301</v>
       </c>
       <c r="T97" s="42">
-        <v>2.9180177967131899</v>
+        <v>2.9180088037406899</v>
       </c>
       <c r="U97" s="42">
-        <v>2.9212940016088802</v>
+        <v>2.9221614845013999</v>
       </c>
       <c r="V97" s="42">
-        <v>2.9135431410426</v>
+        <v>2.91445093907965</v>
       </c>
       <c r="W97" s="42">
-        <v>2.9152504654402298</v>
+        <v>2.9160306364764699</v>
       </c>
       <c r="X97" s="42">
-        <v>2.84012855342952</v>
+        <v>2.8417508155846898</v>
       </c>
       <c r="Y97" s="42">
-        <v>2.820115889417</v>
+        <v>2.8218209372449898</v>
       </c>
       <c r="Z97" s="42">
-        <v>2.87929370641631</v>
+        <v>2.8800753083677102</v>
       </c>
       <c r="AA97" s="42">
-        <v>2.8557790492358199</v>
+        <v>2.8571884394201801</v>
       </c>
       <c r="AB97" s="42">
-        <v>2.8275428306223001</v>
+        <v>2.8296240960320702</v>
       </c>
       <c r="AC97" s="42">
-        <v>2.8438657005164498</v>
+        <v>2.8457289831206101</v>
       </c>
       <c r="AD97" s="42">
-        <v>2.8301510597183102</v>
+        <v>2.8321428026423701</v>
       </c>
       <c r="AE97" s="42">
-        <v>2.7854728877516202</v>
+        <v>2.7877177220796199</v>
       </c>
       <c r="AF97" s="42">
-        <v>2.7671712276246199</v>
+        <v>2.76919430708804</v>
       </c>
       <c r="AG97" s="42">
-        <v>2.7542047498253099</v>
+        <v>2.75564744690231</v>
       </c>
       <c r="AH97" s="42">
-        <v>2.7031565222207701</v>
+        <v>2.7043459508479901</v>
       </c>
       <c r="AI97" s="42">
-        <v>2.6560687627650998</v>
+        <v>2.6571067016383498</v>
       </c>
       <c r="AJ97" s="42">
-        <v>2.64894823218025</v>
+        <v>2.6495357142268601</v>
       </c>
       <c r="AK97" s="42">
-        <v>2.6384831925641699</v>
+        <v>2.6389804462877402</v>
       </c>
       <c r="AL97" s="42">
-        <v>2.6122838841743601</v>
+        <v>2.6128470159717998</v>
       </c>
       <c r="AM97" s="42">
-        <v>2.5816297419233099</v>
+        <v>2.5821149750199401</v>
       </c>
       <c r="AN97" s="42">
-        <v>2.5527599512886701</v>
+        <v>2.55313459246582</v>
       </c>
       <c r="AO97" s="42">
-        <v>2.5228856454156499</v>
+        <v>2.52320195908624</v>
       </c>
       <c r="AP97" s="43">
-        <v>2.5816002394782398</v>
+        <v>2.58204752261237</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13653,124 +13653,124 @@
         <v>155</v>
       </c>
       <c r="C98" s="39">
-        <v>2.6711942159995701</v>
+        <v>2.6713825220410898</v>
       </c>
       <c r="D98" s="39">
-        <v>2.5931166433930799</v>
+        <v>2.5931003853536501</v>
       </c>
       <c r="E98" s="39">
-        <v>2.5726389857252601</v>
+        <v>2.5721027385739998</v>
       </c>
       <c r="F98" s="39">
-        <v>2.54866977681771</v>
+        <v>2.5480086551349399</v>
       </c>
       <c r="G98" s="39">
-        <v>2.4628717636823798</v>
+        <v>2.4617560013422</v>
       </c>
       <c r="H98" s="39">
-        <v>2.3745663819212401</v>
+        <v>2.3723122523326099</v>
       </c>
       <c r="I98" s="39">
-        <v>2.2736706878777202</v>
+        <v>2.2683190983174</v>
       </c>
       <c r="J98" s="39">
-        <v>2.2324525562142901</v>
+        <v>2.2250470573631498</v>
       </c>
       <c r="K98" s="39">
-        <v>2.2343559396924801</v>
+        <v>2.2277463726216902</v>
       </c>
       <c r="L98" s="39">
-        <v>2.2343463637690002</v>
+        <v>2.2277212574874699</v>
       </c>
       <c r="M98" s="39">
-        <v>2.2047793796606201</v>
+        <v>2.1980805284802098</v>
       </c>
       <c r="N98" s="39">
-        <v>2.1824037982147502</v>
+        <v>2.1759000443388099</v>
       </c>
       <c r="O98" s="39">
-        <v>2.1193421486335602</v>
+        <v>2.11324874730263</v>
       </c>
       <c r="P98" s="39">
-        <v>2.0381434111516898</v>
+        <v>2.0320850634404799</v>
       </c>
       <c r="Q98" s="39">
-        <v>1.96999552985195</v>
+        <v>1.9648987180164399</v>
       </c>
       <c r="R98" s="39">
-        <v>1.9064368646690899</v>
+        <v>1.9032109251495299</v>
       </c>
       <c r="S98" s="39">
-        <v>1.78768967291001</v>
+        <v>1.7859746152446301</v>
       </c>
       <c r="T98" s="39">
-        <v>1.65209773441566</v>
+        <v>1.6517033721215699</v>
       </c>
       <c r="U98" s="39">
-        <v>1.65057840490597</v>
+        <v>1.65045042356571</v>
       </c>
       <c r="V98" s="39">
-        <v>1.7288346023315799</v>
+        <v>1.7284159304450399</v>
       </c>
       <c r="W98" s="39">
-        <v>1.77942843970471</v>
+        <v>1.77925719582346</v>
       </c>
       <c r="X98" s="39">
-        <v>1.7760614246183699</v>
+        <v>1.7766872712110999</v>
       </c>
       <c r="Y98" s="39">
-        <v>1.6933766264122201</v>
+        <v>1.69517040515894</v>
       </c>
       <c r="Z98" s="39">
-        <v>1.49648396407422</v>
+        <v>1.50010557810458</v>
       </c>
       <c r="AA98" s="39">
-        <v>1.4172308701088101</v>
+        <v>1.4214023080579601</v>
       </c>
       <c r="AB98" s="39">
-        <v>1.4251590619599199</v>
+        <v>1.4286891644959001</v>
       </c>
       <c r="AC98" s="39">
-        <v>1.39056401574431</v>
+        <v>1.39368643064313</v>
       </c>
       <c r="AD98" s="39">
-        <v>1.37126105587888</v>
+        <v>1.3739934522711199</v>
       </c>
       <c r="AE98" s="39">
-        <v>1.36437612128117</v>
+        <v>1.3665217970977099</v>
       </c>
       <c r="AF98" s="39">
-        <v>1.38349773955342</v>
+        <v>1.38482286558408</v>
       </c>
       <c r="AG98" s="39">
-        <v>1.4388738581566201</v>
+        <v>1.4394346557077899</v>
       </c>
       <c r="AH98" s="39">
-        <v>1.43508783411628</v>
+        <v>1.4355760557172901</v>
       </c>
       <c r="AI98" s="39">
-        <v>1.48922446940618</v>
+        <v>1.4886424689959401</v>
       </c>
       <c r="AJ98" s="39">
-        <v>1.59699170563454</v>
+        <v>1.59468599011297</v>
       </c>
       <c r="AK98" s="39">
-        <v>1.5888753363899399</v>
+        <v>1.5860930097038699</v>
       </c>
       <c r="AL98" s="39">
-        <v>1.5511175256162999</v>
+        <v>1.5481885160737701</v>
       </c>
       <c r="AM98" s="39">
-        <v>1.5080734101467199</v>
+        <v>1.50508973715788</v>
       </c>
       <c r="AN98" s="39">
-        <v>1.4659946940908299</v>
+        <v>1.4629856804857999</v>
       </c>
       <c r="AO98" s="39">
-        <v>1.42627200968957</v>
+        <v>1.4232506216574901</v>
       </c>
       <c r="AP98" s="40">
-        <v>1.5080500014995</v>
+        <v>1.50510487394435</v>
       </c>
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.35">
@@ -14484,11 +14484,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{2D1D95EB-2234-451D-BD24-B65892E914DE}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3DADB4F0-6325-47DF-976A-B115DA3BA1CE}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{68E4BFF7-D021-4EE4-9850-718E6A95A62F}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C3870053-C8FE-47CD-BD66-19F07288C6FB}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{6103435D-C3F4-483A-9E9F-E248DA948114}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7C01B73A-3867-4EB0-9C27-1AF56E2BAE90}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C7D891EA-28D0-49F6-9A9D-B69B30BF154E}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{6C991ED8-08BB-43AE-8C9B-259B68C10C50}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D178FFC9-EDFD-4576-9F23-E6493AB6FA4B}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{7B0ECE26-BF5F-41B2-85F8-7B344E16679D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab03.xlsx
+++ b/AfDD_2023_Annex_Table_Tab03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BC5182F-24A4-48DC-9EF0-04FCAF9F42D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F81BC1-C34F-4BA1-A720-9C54BF6448F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9F8CE6E3-2BCD-4F62-91BB-B64B3C155199}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{749ACA45-BE2E-4791-8B88-A58CD067220B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -1295,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBEE459-32B8-41BB-8C72-BA73BF0738D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAA0490-FA08-4F3F-BCED-9180F13B6446}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14484,11 +14484,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7C01B73A-3867-4EB0-9C27-1AF56E2BAE90}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C7D891EA-28D0-49F6-9A9D-B69B30BF154E}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{6C991ED8-08BB-43AE-8C9B-259B68C10C50}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D178FFC9-EDFD-4576-9F23-E6493AB6FA4B}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{7B0ECE26-BF5F-41B2-85F8-7B344E16679D}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BEC96AC7-D0DA-4A65-889B-3DAF7DE44348}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{83E59E0C-2FFF-428D-B157-14007321D6D7}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{90D7BE24-C3C8-4733-B75B-FCDAB8032E66}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{466C1D3A-A025-46BE-AE7A-861FE27AA319}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{91245158-722A-42F1-AA97-0526D014190B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab03.xlsx
+++ b/AfDD_2023_Annex_Table_Tab03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F81BC1-C34F-4BA1-A720-9C54BF6448F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C780D0A-59B9-432F-90CD-AF3CFD63D35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{749ACA45-BE2E-4791-8B88-A58CD067220B}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{8038C092-7AAB-4F4B-BB5B-53CD6E642354}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Figures up to 2022 are estimates. For 2023 onwards, they are projections.</t>
@@ -1295,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAA0490-FA08-4F3F-BCED-9180F13B6446}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFC2F09-2D15-4380-8B74-4B6C09323720}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9694,10 +9694,10 @@
         <v>2.6427357051296299</v>
       </c>
       <c r="F67" s="42">
-        <v>2.5921470390225698</v>
+        <v>2.5921470390226</v>
       </c>
       <c r="G67" s="42">
-        <v>2.3831369160085099</v>
+        <v>2.3831369160084899</v>
       </c>
       <c r="H67" s="42">
         <v>2.4632770788534799</v>
@@ -9709,19 +9709,19 @@
         <v>2.6293387320211798</v>
       </c>
       <c r="K67" s="42">
-        <v>2.5363805249015701</v>
+        <v>2.5363805249015501</v>
       </c>
       <c r="L67" s="42">
-        <v>2.59032532798564</v>
+        <v>2.5903253279856702</v>
       </c>
       <c r="M67" s="42">
-        <v>2.6102984774831102</v>
+        <v>2.6102984774830902</v>
       </c>
       <c r="N67" s="42">
-        <v>2.6353259164120901</v>
+        <v>2.6353259164121301</v>
       </c>
       <c r="O67" s="42">
-        <v>2.66161119187309</v>
+        <v>2.6616111918730501</v>
       </c>
       <c r="P67" s="42">
         <v>2.66149731821899</v>
@@ -9730,22 +9730,22 @@
         <v>2.6663977472726201</v>
       </c>
       <c r="R67" s="42">
-        <v>2.6685518435357798</v>
+        <v>2.66855184353583</v>
       </c>
       <c r="S67" s="42">
-        <v>2.6859783177304801</v>
+        <v>2.6859783177304499</v>
       </c>
       <c r="T67" s="42">
         <v>2.71849961432908</v>
       </c>
       <c r="U67" s="42">
-        <v>2.7282096672888598</v>
+        <v>2.7282096672888798</v>
       </c>
       <c r="V67" s="42">
         <v>2.7266663936630802</v>
       </c>
       <c r="W67" s="42">
-        <v>2.7235365249281398</v>
+        <v>2.7235365249281198</v>
       </c>
       <c r="X67" s="42">
         <v>0.47023321230207998</v>
@@ -9757,19 +9757,19 @@
         <v>2.6990748852826898</v>
       </c>
       <c r="AA67" s="42">
-        <v>2.7268727227936198</v>
+        <v>2.7268727227936398</v>
       </c>
       <c r="AB67" s="42">
-        <v>2.6783511273101599</v>
+        <v>2.6783511273101901</v>
       </c>
       <c r="AC67" s="42">
-        <v>2.6896664392773899</v>
+        <v>2.6896664392773499</v>
       </c>
       <c r="AD67" s="42">
         <v>2.7099488343834199</v>
       </c>
       <c r="AE67" s="42">
-        <v>2.6405015333436799</v>
+        <v>2.6405015333436999</v>
       </c>
       <c r="AF67" s="42">
         <v>2.5802505456276101</v>
@@ -9778,28 +9778,28 @@
         <v>2.5476748469536901</v>
       </c>
       <c r="AH67" s="42">
-        <v>2.4872737504042099</v>
+        <v>2.4872737504042499</v>
       </c>
       <c r="AI67" s="42">
-        <v>2.42115407360324</v>
+        <v>2.42115407360322</v>
       </c>
       <c r="AJ67" s="42">
-        <v>2.4081548816616798</v>
+        <v>2.4081548816616198</v>
       </c>
       <c r="AK67" s="42">
         <v>2.4037312580764301</v>
       </c>
       <c r="AL67" s="42">
-        <v>2.38122375113428</v>
+        <v>2.3812237511343</v>
       </c>
       <c r="AM67" s="42">
-        <v>2.35140904811453</v>
+        <v>2.35140904811455</v>
       </c>
       <c r="AN67" s="42">
-        <v>2.3238282136257302</v>
+        <v>2.32382821362576</v>
       </c>
       <c r="AO67" s="42">
-        <v>2.2947830035001</v>
+        <v>2.29478300350006</v>
       </c>
       <c r="AP67" s="43">
         <v>2.3509876362642501</v>
@@ -9813,10 +9813,10 @@
         <v>125</v>
       </c>
       <c r="C68" s="36">
-        <v>2.5182118448480399</v>
+        <v>2.5182118448480599</v>
       </c>
       <c r="D68" s="36">
-        <v>2.3494548731092899</v>
+        <v>2.3494548731092499</v>
       </c>
       <c r="E68" s="36">
         <v>2.22658190236469</v>
@@ -9825,16 +9825,16 @@
         <v>2.40138175144804</v>
       </c>
       <c r="G68" s="36">
-        <v>2.4952531939674398</v>
+        <v>2.4952531939674198</v>
       </c>
       <c r="H68" s="36">
-        <v>2.5187729724331702</v>
+        <v>2.5187729724331902</v>
       </c>
       <c r="I68" s="36">
-        <v>2.4752302473691801</v>
+        <v>2.4752302473691499</v>
       </c>
       <c r="J68" s="36">
-        <v>2.4301128067750999</v>
+        <v>2.4301128067751199</v>
       </c>
       <c r="K68" s="36">
         <v>2.4208317246686502</v>
@@ -9855,10 +9855,10 @@
         <v>2.5677640009769398</v>
       </c>
       <c r="Q68" s="36">
-        <v>2.5646962251603802</v>
+        <v>2.5646962251603602</v>
       </c>
       <c r="R68" s="36">
-        <v>2.5454256091826299</v>
+        <v>2.5454256091826499</v>
       </c>
       <c r="S68" s="36">
         <v>2.5234734716863598</v>
@@ -9867,31 +9867,31 @@
         <v>2.53340088836871</v>
       </c>
       <c r="U68" s="36">
-        <v>2.55060253829904</v>
+        <v>2.5506025382990201</v>
       </c>
       <c r="V68" s="36">
-        <v>2.5435590965137602</v>
+        <v>2.5435590965137398</v>
       </c>
       <c r="W68" s="36">
-        <v>2.5498810990449701</v>
+        <v>2.5498810990449901</v>
       </c>
       <c r="X68" s="36">
-        <v>0.50238290465546998</v>
+        <v>0.50238290465549995</v>
       </c>
       <c r="Y68" s="36">
-        <v>2.41682304157735</v>
+        <v>2.41682304157733</v>
       </c>
       <c r="Z68" s="36">
-        <v>2.5355964455723301</v>
+        <v>2.5355964455723501</v>
       </c>
       <c r="AA68" s="36">
-        <v>2.5563172282251601</v>
+        <v>2.5563172282251401</v>
       </c>
       <c r="AB68" s="36">
         <v>2.52188198940047</v>
       </c>
       <c r="AC68" s="36">
-        <v>2.5127911234293498</v>
+        <v>2.5127911234293698</v>
       </c>
       <c r="AD68" s="36">
         <v>2.5154348788310998</v>
@@ -9906,25 +9906,25 @@
         <v>2.3676863620003799</v>
       </c>
       <c r="AH68" s="36">
-        <v>2.3194634493938899</v>
+        <v>2.3194634493939099</v>
       </c>
       <c r="AI68" s="36">
-        <v>2.2741838866639599</v>
+        <v>2.2741838866639399</v>
       </c>
       <c r="AJ68" s="36">
         <v>2.2718032291786798</v>
       </c>
       <c r="AK68" s="36">
-        <v>2.2665126918071499</v>
+        <v>2.2665126918071299</v>
       </c>
       <c r="AL68" s="36">
-        <v>2.2490969809372299</v>
+        <v>2.2490969809372499</v>
       </c>
       <c r="AM68" s="36">
         <v>2.22160663972695</v>
       </c>
       <c r="AN68" s="36">
-        <v>2.19577840803862</v>
+        <v>2.19577840803864</v>
       </c>
       <c r="AO68" s="36">
         <v>2.1697183188398301</v>
@@ -9941,7 +9941,7 @@
         <v>126</v>
       </c>
       <c r="C69" s="36">
-        <v>3.0863707907476301</v>
+        <v>3.0863707907476101</v>
       </c>
       <c r="D69" s="36">
         <v>3.03266004187368</v>
@@ -9965,10 +9965,10 @@
         <v>2.682641971292</v>
       </c>
       <c r="K69" s="36">
-        <v>2.6397075638872698</v>
+        <v>2.6397075638872902</v>
       </c>
       <c r="L69" s="36">
-        <v>2.7847363745344702</v>
+        <v>2.7847363745344502</v>
       </c>
       <c r="M69" s="36">
         <v>2.8407041351790698</v>
@@ -9995,7 +9995,7 @@
         <v>3.0676114703463999</v>
       </c>
       <c r="U69" s="36">
-        <v>3.0657085533915001</v>
+        <v>3.0657085533914801</v>
       </c>
       <c r="V69" s="36">
         <v>3.0489631578016998</v>
@@ -10040,22 +10040,22 @@
         <v>2.7994452530823999</v>
       </c>
       <c r="AJ69" s="36">
-        <v>2.7825941515168302</v>
+        <v>2.7825941515168502</v>
       </c>
       <c r="AK69" s="36">
-        <v>2.7739237059653901</v>
+        <v>2.7739237059653599</v>
       </c>
       <c r="AL69" s="36">
         <v>2.7509838982792401</v>
       </c>
       <c r="AM69" s="36">
-        <v>2.72445842585776</v>
+        <v>2.7244584258577098</v>
       </c>
       <c r="AN69" s="36">
-        <v>2.7014521015040498</v>
+        <v>2.7014521015041</v>
       </c>
       <c r="AO69" s="36">
-        <v>2.6767858329292702</v>
+        <v>2.6767858329292502</v>
       </c>
       <c r="AP69" s="37">
         <v>2.7255150039488201</v>
@@ -10075,22 +10075,22 @@
         <v>3.1308737717255402</v>
       </c>
       <c r="E70" s="36">
-        <v>3.0732111470783701</v>
+        <v>3.07321114707839</v>
       </c>
       <c r="F70" s="36">
-        <v>2.7091269490991499</v>
+        <v>2.7091269490991099</v>
       </c>
       <c r="G70" s="36">
-        <v>2.1047578309432602</v>
+        <v>2.1047578309432802</v>
       </c>
       <c r="H70" s="36">
-        <v>2.5400969063194201</v>
+        <v>2.5400969063193801</v>
       </c>
       <c r="I70" s="36">
-        <v>3.3274598562155702</v>
+        <v>3.3274598562155902</v>
       </c>
       <c r="J70" s="36">
-        <v>2.9609089969104598</v>
+        <v>2.9609089969104398</v>
       </c>
       <c r="K70" s="36">
         <v>2.6960746929634198</v>
@@ -10114,13 +10114,13 @@
         <v>3.19328726008494</v>
       </c>
       <c r="R70" s="36">
-        <v>3.2399172756611301</v>
+        <v>3.2399172756611101</v>
       </c>
       <c r="S70" s="36">
-        <v>3.2349955225157601</v>
+        <v>3.2349955225158098</v>
       </c>
       <c r="T70" s="36">
-        <v>3.2555804782918898</v>
+        <v>3.2555804782918401</v>
       </c>
       <c r="U70" s="36">
         <v>3.28982649606204</v>
@@ -10129,37 +10129,37 @@
         <v>3.38027547419872</v>
       </c>
       <c r="W70" s="36">
-        <v>3.3814532545247</v>
+        <v>3.3814532545247298</v>
       </c>
       <c r="X70" s="36">
         <v>3.32079229760607</v>
       </c>
       <c r="Y70" s="36">
-        <v>3.2785106176283798</v>
+        <v>3.2785106176283598</v>
       </c>
       <c r="Z70" s="36">
-        <v>3.2829478422291598</v>
+        <v>3.2829478422291798</v>
       </c>
       <c r="AA70" s="36">
         <v>3.2897867495867801</v>
       </c>
       <c r="AB70" s="36">
-        <v>3.1802475126563499</v>
+        <v>3.1802475126563299</v>
       </c>
       <c r="AC70" s="36">
-        <v>3.1913068392016601</v>
+        <v>3.1913068392016801</v>
       </c>
       <c r="AD70" s="36">
-        <v>3.2128477144055299</v>
+        <v>3.2128477144055099</v>
       </c>
       <c r="AE70" s="36">
         <v>3.1564481231037398</v>
       </c>
       <c r="AF70" s="36">
-        <v>3.1196685974113998</v>
+        <v>3.11966859741137</v>
       </c>
       <c r="AG70" s="36">
-        <v>3.0767709001535501</v>
+        <v>3.0767709001535701</v>
       </c>
       <c r="AH70" s="36">
         <v>3.0221474177977798</v>
@@ -10168,7 +10168,7 @@
         <v>2.9882869131132801</v>
       </c>
       <c r="AJ70" s="36">
-        <v>3.0053396862837198</v>
+        <v>3.0053396862836901</v>
       </c>
       <c r="AK70" s="36">
         <v>2.9967142682760399</v>
@@ -10177,10 +10177,10 @@
         <v>2.9693970231235101</v>
       </c>
       <c r="AM70" s="36">
-        <v>2.9377982728513201</v>
+        <v>2.9377982728513001</v>
       </c>
       <c r="AN70" s="36">
-        <v>2.9094994619164298</v>
+        <v>2.9094994619164498</v>
       </c>
       <c r="AO70" s="36">
         <v>2.8805032655275302</v>
@@ -10328,25 +10328,25 @@
         <v>2.89872885776259</v>
       </c>
       <c r="D72" s="36">
-        <v>2.8616576270849698</v>
+        <v>2.8616576270849499</v>
       </c>
       <c r="E72" s="36">
-        <v>2.6848152531427298</v>
+        <v>2.6848152531427498</v>
       </c>
       <c r="F72" s="36">
         <v>2.9444545299184699</v>
       </c>
       <c r="G72" s="36">
-        <v>3.1916274833956102</v>
+        <v>3.1916274833956302</v>
       </c>
       <c r="H72" s="36">
-        <v>3.0676798615584899</v>
+        <v>3.0676798615584699</v>
       </c>
       <c r="I72" s="36">
-        <v>2.9696240640787002</v>
+        <v>2.9696240640787201</v>
       </c>
       <c r="J72" s="36">
-        <v>2.9216319863939</v>
+        <v>2.92163198639388</v>
       </c>
       <c r="K72" s="36">
         <v>2.8923570416576898</v>
@@ -10382,10 +10382,10 @@
         <v>2.98524069970312</v>
       </c>
       <c r="V72" s="36">
-        <v>2.92397498960002</v>
+        <v>2.9239749896</v>
       </c>
       <c r="W72" s="36">
-        <v>2.8741537286101502</v>
+        <v>2.8741537286101999</v>
       </c>
       <c r="X72" s="36">
         <v>2.7520723721040201</v>
@@ -10400,28 +10400,28 @@
         <v>2.6456735849814499</v>
       </c>
       <c r="AB72" s="36">
-        <v>2.63283686179552</v>
+        <v>2.63283686179554</v>
       </c>
       <c r="AC72" s="36">
-        <v>2.6681517907986501</v>
+        <v>2.6681517907985999</v>
       </c>
       <c r="AD72" s="36">
-        <v>2.6245775755254099</v>
+        <v>2.6245775755254299</v>
       </c>
       <c r="AE72" s="36">
         <v>2.6103955770085299</v>
       </c>
       <c r="AF72" s="36">
-        <v>2.6732038833086702</v>
+        <v>2.6732038833086902</v>
       </c>
       <c r="AG72" s="36">
-        <v>2.67703322663961</v>
+        <v>2.67703322663957</v>
       </c>
       <c r="AH72" s="36">
         <v>2.5976534953092001</v>
       </c>
       <c r="AI72" s="36">
-        <v>2.5248639986564601</v>
+        <v>2.52486399865648</v>
       </c>
       <c r="AJ72" s="36">
         <v>2.4896971513123098</v>
@@ -10453,7 +10453,7 @@
         <v>130</v>
       </c>
       <c r="C73" s="36">
-        <v>2.9929293912672099</v>
+        <v>2.9929293912671602</v>
       </c>
       <c r="D73" s="36">
         <v>2.81083551864891</v>
@@ -10462,13 +10462,13 @@
         <v>2.5988360216608202</v>
       </c>
       <c r="F73" s="36">
-        <v>2.60032722550587</v>
+        <v>2.6003272255059202</v>
       </c>
       <c r="G73" s="36">
         <v>3.0009833160922401</v>
       </c>
       <c r="H73" s="36">
-        <v>2.8352038041093102</v>
+        <v>2.8352038041092902</v>
       </c>
       <c r="I73" s="36">
         <v>2.1337401856381701</v>
@@ -10477,7 +10477,7 @@
         <v>2.0293107890876101</v>
       </c>
       <c r="K73" s="36">
-        <v>2.23284493920595</v>
+        <v>2.2328449392059699</v>
       </c>
       <c r="L73" s="36">
         <v>2.3125712045736901</v>
@@ -10501,13 +10501,13 @@
         <v>2.4171176314101501</v>
       </c>
       <c r="S73" s="36">
-        <v>2.4845318232602902</v>
+        <v>2.4845318232602698</v>
       </c>
       <c r="T73" s="36">
         <v>2.5315789606176202</v>
       </c>
       <c r="U73" s="36">
-        <v>2.5501762760524098</v>
+        <v>2.5501762760524298</v>
       </c>
       <c r="V73" s="36">
         <v>2.54932809446071</v>
@@ -10528,19 +10528,19 @@
         <v>2.8662560093743399</v>
       </c>
       <c r="AB73" s="36">
-        <v>2.9662800154340001</v>
+        <v>2.9662800154339801</v>
       </c>
       <c r="AC73" s="36">
-        <v>2.8173617961731998</v>
+        <v>2.8173617961732198</v>
       </c>
       <c r="AD73" s="36">
         <v>2.6936410628618299</v>
       </c>
       <c r="AE73" s="36">
-        <v>2.7435556095160698</v>
+        <v>2.7435556095160898</v>
       </c>
       <c r="AF73" s="36">
-        <v>2.69169190775178</v>
+        <v>2.69169190775176</v>
       </c>
       <c r="AG73" s="36">
         <v>2.6776996622417202</v>
@@ -10555,22 +10555,22 @@
         <v>2.5641097321673398</v>
       </c>
       <c r="AK73" s="36">
-        <v>2.5897446179583801</v>
+        <v>2.58974461795842</v>
       </c>
       <c r="AL73" s="36">
-        <v>2.5803278867535102</v>
+        <v>2.5803278867534898</v>
       </c>
       <c r="AM73" s="36">
-        <v>2.54930899732067</v>
+        <v>2.5493089973206402</v>
       </c>
       <c r="AN73" s="36">
-        <v>2.5220053291748101</v>
+        <v>2.5220053291748399</v>
       </c>
       <c r="AO73" s="36">
         <v>2.4940797835606401</v>
       </c>
       <c r="AP73" s="37">
-        <v>2.54708711239262</v>
+        <v>2.54708711239264</v>
       </c>
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.35">
@@ -13525,124 +13525,124 @@
         <v>154</v>
       </c>
       <c r="C97" s="42">
-        <v>2.7670768418366398</v>
+        <v>2.8712840883372999</v>
       </c>
       <c r="D97" s="42">
-        <v>2.75007894227981</v>
+        <v>2.9249276392543799</v>
       </c>
       <c r="E97" s="42">
-        <v>2.7244167078517298</v>
+        <v>2.92669754493402</v>
       </c>
       <c r="F97" s="42">
-        <v>2.7526947169972402</v>
+        <v>2.8679083605082099</v>
       </c>
       <c r="G97" s="42">
-        <v>3.0800128458089899</v>
+        <v>2.9526136339493001</v>
       </c>
       <c r="H97" s="42">
-        <v>3.0593934491927102</v>
+        <v>2.8688303578960501</v>
       </c>
       <c r="I97" s="42">
-        <v>2.6462370375937501</v>
+        <v>2.7122396343194399</v>
       </c>
       <c r="J97" s="42">
-        <v>2.6038345257756399</v>
+        <v>2.73054027080883</v>
       </c>
       <c r="K97" s="42">
-        <v>2.7216738432126499</v>
+        <v>2.76854122895696</v>
       </c>
       <c r="L97" s="42">
-        <v>2.77974404346564</v>
+        <v>2.7630130356424401</v>
       </c>
       <c r="M97" s="42">
-        <v>2.8257065986673702</v>
+        <v>2.7783243053547402</v>
       </c>
       <c r="N97" s="42">
-        <v>2.85352137402066</v>
+        <v>2.7984672466235199</v>
       </c>
       <c r="O97" s="42">
-        <v>2.8565488563097698</v>
+        <v>2.8118953207824302</v>
       </c>
       <c r="P97" s="42">
-        <v>2.8553807441674701</v>
+        <v>2.80383554361809</v>
       </c>
       <c r="Q97" s="42">
-        <v>2.8718603361984401</v>
+        <v>2.7972054870211598</v>
       </c>
       <c r="R97" s="42">
-        <v>2.8861029008452799</v>
+        <v>2.8074548437281699</v>
       </c>
       <c r="S97" s="42">
-        <v>2.8982802689371301</v>
+        <v>2.8239773645694699</v>
       </c>
       <c r="T97" s="42">
-        <v>2.9180088037406899</v>
+        <v>2.8382150346331101</v>
       </c>
       <c r="U97" s="42">
-        <v>2.9221614845013999</v>
+        <v>2.8361417660871302</v>
       </c>
       <c r="V97" s="42">
-        <v>2.91445093907965</v>
+        <v>2.8198287773505002</v>
       </c>
       <c r="W97" s="42">
-        <v>2.9160306364764699</v>
+        <v>2.8334399419298402</v>
       </c>
       <c r="X97" s="42">
-        <v>2.8417508155846898</v>
+        <v>2.7920774270478099</v>
       </c>
       <c r="Y97" s="42">
-        <v>2.8218209372449898</v>
+        <v>2.7794770725853901</v>
       </c>
       <c r="Z97" s="42">
-        <v>2.8800753083677102</v>
+        <v>2.8195356430634102</v>
       </c>
       <c r="AA97" s="42">
-        <v>2.8571884394201801</v>
+        <v>2.8140527585647699</v>
       </c>
       <c r="AB97" s="42">
-        <v>2.8296240960320702</v>
+        <v>2.8111596535637098</v>
       </c>
       <c r="AC97" s="42">
-        <v>2.8457289831206101</v>
+        <v>2.82615672421647</v>
       </c>
       <c r="AD97" s="42">
-        <v>2.8321428026423701</v>
+        <v>2.8205769295637499</v>
       </c>
       <c r="AE97" s="42">
-        <v>2.7877177220796199</v>
+        <v>2.7550839038070798</v>
       </c>
       <c r="AF97" s="42">
-        <v>2.76919430708804</v>
+        <v>2.7086479973325499</v>
       </c>
       <c r="AG97" s="42">
-        <v>2.75564744690231</v>
+        <v>2.6924563470530001</v>
       </c>
       <c r="AH97" s="42">
-        <v>2.7043459508479901</v>
+        <v>2.6444346614751502</v>
       </c>
       <c r="AI97" s="42">
-        <v>2.6571067016383498</v>
+        <v>2.5910214364820701</v>
       </c>
       <c r="AJ97" s="42">
-        <v>2.6495357142268601</v>
+        <v>2.5738574864938402</v>
       </c>
       <c r="AK97" s="42">
-        <v>2.6389804462877402</v>
+        <v>2.5606704324398799</v>
       </c>
       <c r="AL97" s="42">
-        <v>2.6128470159717998</v>
+        <v>2.53350918494584</v>
       </c>
       <c r="AM97" s="42">
-        <v>2.5821149750199401</v>
+        <v>2.5018843163832098</v>
       </c>
       <c r="AN97" s="42">
-        <v>2.55313459246582</v>
+        <v>2.4714644495370299</v>
       </c>
       <c r="AO97" s="42">
-        <v>2.52320195908624</v>
+        <v>2.44038948714815</v>
       </c>
       <c r="AP97" s="43">
-        <v>2.58204752261237</v>
+        <v>2.5015746351210599</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13653,124 +13653,124 @@
         <v>155</v>
       </c>
       <c r="C98" s="39">
-        <v>2.6713825220410898</v>
+        <v>2.7580747789735902</v>
       </c>
       <c r="D98" s="39">
-        <v>2.5931003853536501</v>
+        <v>2.6697799860242202</v>
       </c>
       <c r="E98" s="39">
-        <v>2.5721027385739998</v>
+        <v>2.2592175214822601</v>
       </c>
       <c r="F98" s="39">
-        <v>2.5480086551349399</v>
+        <v>2.0139036975867599</v>
       </c>
       <c r="G98" s="39">
-        <v>2.4617560013422</v>
+        <v>2.0482906465511701</v>
       </c>
       <c r="H98" s="39">
-        <v>2.3723122523326099</v>
+        <v>2.1411359890695798</v>
       </c>
       <c r="I98" s="39">
-        <v>2.2683190983174</v>
+        <v>2.1095529609313202</v>
       </c>
       <c r="J98" s="39">
-        <v>2.2250470573631498</v>
+        <v>2.07856312472203</v>
       </c>
       <c r="K98" s="39">
-        <v>2.2277463726216902</v>
+        <v>2.0831190212121</v>
       </c>
       <c r="L98" s="39">
-        <v>2.2277212574874699</v>
+        <v>2.0718258363711799</v>
       </c>
       <c r="M98" s="39">
-        <v>2.1980805284802098</v>
+        <v>2.13999660428088</v>
       </c>
       <c r="N98" s="39">
-        <v>2.1759000443388099</v>
+        <v>2.1508015956938999</v>
       </c>
       <c r="O98" s="39">
-        <v>2.11324874730263</v>
+        <v>1.8489449554592901</v>
       </c>
       <c r="P98" s="39">
-        <v>2.0320850634404799</v>
+        <v>1.7060571061198</v>
       </c>
       <c r="Q98" s="39">
-        <v>1.9648987180164399</v>
+        <v>1.7815451200724</v>
       </c>
       <c r="R98" s="39">
-        <v>1.9032109251495299</v>
+        <v>1.7092741296451901</v>
       </c>
       <c r="S98" s="39">
-        <v>1.7859746152446301</v>
+        <v>1.59230617603761</v>
       </c>
       <c r="T98" s="39">
-        <v>1.6517033721215699</v>
+        <v>1.54736693405895</v>
       </c>
       <c r="U98" s="39">
-        <v>1.65045042356571</v>
+        <v>1.4874924144758299</v>
       </c>
       <c r="V98" s="39">
-        <v>1.7284159304450399</v>
+        <v>1.49593650226638</v>
       </c>
       <c r="W98" s="39">
-        <v>1.77925719582346</v>
+        <v>1.5903689934171601</v>
       </c>
       <c r="X98" s="39">
-        <v>1.7766872712110999</v>
+        <v>1.55037376729301</v>
       </c>
       <c r="Y98" s="39">
-        <v>1.69517040515894</v>
+        <v>1.45425020245993</v>
       </c>
       <c r="Z98" s="39">
-        <v>1.50010557810458</v>
+        <v>1.3942330316978599</v>
       </c>
       <c r="AA98" s="39">
-        <v>1.4214023080579601</v>
+        <v>1.3972830940858001</v>
       </c>
       <c r="AB98" s="39">
-        <v>1.4286891644959001</v>
+        <v>1.3854609781049501</v>
       </c>
       <c r="AC98" s="39">
-        <v>1.39368643064313</v>
+        <v>1.2867654663596</v>
       </c>
       <c r="AD98" s="39">
-        <v>1.3739934522711199</v>
+        <v>1.2123487023433499</v>
       </c>
       <c r="AE98" s="39">
-        <v>1.3665217970977099</v>
+        <v>1.14869949335288</v>
       </c>
       <c r="AF98" s="39">
-        <v>1.38482286558408</v>
+        <v>1.11090440242374</v>
       </c>
       <c r="AG98" s="39">
-        <v>1.4394346557077899</v>
+        <v>1.1834309887612999</v>
       </c>
       <c r="AH98" s="39">
-        <v>1.4355760557172901</v>
+        <v>1.22828707688809</v>
       </c>
       <c r="AI98" s="39">
-        <v>1.4886424689959401</v>
+        <v>1.28069165989329</v>
       </c>
       <c r="AJ98" s="39">
-        <v>1.59468599011297</v>
+        <v>1.3528737753707401</v>
       </c>
       <c r="AK98" s="39">
-        <v>1.5860930097038699</v>
+        <v>1.34477818678824</v>
       </c>
       <c r="AL98" s="39">
-        <v>1.5481885160737701</v>
+        <v>1.3128623776247601</v>
       </c>
       <c r="AM98" s="39">
-        <v>1.50508973715788</v>
+        <v>1.2793411274954201</v>
       </c>
       <c r="AN98" s="39">
-        <v>1.4629856804857999</v>
+        <v>1.2470957979644699</v>
       </c>
       <c r="AO98" s="39">
-        <v>1.4232506216574901</v>
+        <v>1.21512379955495</v>
       </c>
       <c r="AP98" s="40">
-        <v>1.50510487394435</v>
+        <v>1.2798298233897001</v>
       </c>
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.35">
@@ -14484,11 +14484,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BEC96AC7-D0DA-4A65-889B-3DAF7DE44348}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{83E59E0C-2FFF-428D-B157-14007321D6D7}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{90D7BE24-C3C8-4733-B75B-FCDAB8032E66}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{466C1D3A-A025-46BE-AE7A-861FE27AA319}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{91245158-722A-42F1-AA97-0526D014190B}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{89DE561D-F139-4C53-8F00-A201C9CDC84B}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{2A11AA3C-590C-43FF-B5AC-AF8EFD463F90}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{DC52C4F6-425E-49AF-B015-88DDDC8151E9}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{121623E1-8B48-49B0-B0EE-BDCE3D5DA492}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{5044B773-87C9-4CDF-902E-609AC2C977C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab03.xlsx
+++ b/AfDD_2023_Annex_Table_Tab03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C780D0A-59B9-432F-90CD-AF3CFD63D35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA22632-39FA-48D4-B7A4-626A5736AC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{8038C092-7AAB-4F4B-BB5B-53CD6E642354}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{F27EDE37-C21C-46C4-8E39-FDCDF603F34E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="168">
   <si>
     <t>Table 3: Annual population growth rate, 1990-2028</t>
   </si>
@@ -528,16 +528,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFC2F09-2D15-4380-8B74-4B6C09323720}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D9D72A-3FB2-4274-BF45-CEC86E1900D9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14219,7 +14222,7 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C109" s="47"/>
       <c r="D109" s="47"/>
@@ -14264,7 +14267,7 @@
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C110" s="47"/>
       <c r="D110" s="47"/>
@@ -14308,7 +14311,9 @@
       <c r="AP110" s="47"/>
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="C111" s="47"/>
       <c r="D111" s="47"/>
       <c r="E111" s="47"/>
@@ -14352,7 +14357,7 @@
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C112" s="47"/>
       <c r="D112" s="47"/>
@@ -14397,7 +14402,7 @@
     </row>
     <row r="113" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C113" s="47"/>
       <c r="D113" s="47"/>
@@ -14484,13 +14489,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{89DE561D-F139-4C53-8F00-A201C9CDC84B}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{2A11AA3C-590C-43FF-B5AC-AF8EFD463F90}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{DC52C4F6-425E-49AF-B015-88DDDC8151E9}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{121623E1-8B48-49B0-B0EE-BDCE3D5DA492}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{5044B773-87C9-4CDF-902E-609AC2C977C9}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7B88E05A-74D2-4D32-AA3A-B157BC4416CC}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BE7B363F-C0E0-4222-B2D2-69A925EE097D}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{49A9FD79-0413-4891-A30B-A5B544383109}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{60BF7C3C-2AFE-4D06-8298-68A2B6F27727}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{880C6D42-0749-4FA3-9D2C-4DC3E55B31C9}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{5F1ED21F-4D3B-43D0-A9C4-DE8BC153178A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab03.xlsx
+++ b/AfDD_2023_Annex_Table_Tab03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA22632-39FA-48D4-B7A4-626A5736AC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{579FA60A-FA46-4EEF-824B-39D9AC6040B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{F27EDE37-C21C-46C4-8E39-FDCDF603F34E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{B72ACD4D-A3A4-4F90-B2D3-FCF16BFCB207}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab03'!$A$2:$AL$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab03'!$A$1:$AL$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D9D72A-3FB2-4274-BF45-CEC86E1900D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB508C9-9751-4BF7-BED1-834CB7AAB6BD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1306,16 +1306,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6328125" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="41" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="41" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1360,7 +1360,7 @@
       <c r="AO1" s="3"/>
       <c r="AP1" s="4"/>
     </row>
-    <row r="2" spans="1:42" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:42" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>2.9717274785394001</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>1.55813392781803</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>1.04126686049189</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>1.04644391076207</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>2.5658697345564399</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>2.7647041212568699</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>1.6236875231584</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>1.0058088885441601</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>2.67253458666625</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>2.0567872786027501</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>2.1270602197931399</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>2.5893985687769399</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>2.5345556044657398</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>3.0889374531711602</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>3.0270585669090999</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>2.2174347151837002</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>3.2384354190141198</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>2.26345733651161</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>1.9059793676694099</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>1.9389824171407899</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>24</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>2.9893280141633798</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>45</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>1.7453108992042199</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>47</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>1.36023826950213</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>49</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>1.9045328722233199</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>51</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>2.4372159960398099</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>53</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1.97565134677762</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>55</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>2.35088977342917</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>57</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>7.3951119308989996E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>2.2010187010445699</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>61</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>0.50463404892658004</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>63</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>3.0372006158139402</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>65</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>1.7707433355601301</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>68</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>2.4985976007434898</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>2.8521707829067799</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>72</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>2.6984225584235402</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
         <v>24</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>2.4597556373820999</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>75</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>1.32133393907923</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>77</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>1.5306256597110099</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>79</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>1.0410347515910501</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>81</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>2.65590220719423</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>83</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>0.90845302232183001</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>85</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>0.76168787269992</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="19" t="s">
         <v>24</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>1.3487234351891699</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>88</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>2.6172163415424401</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>90</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>2.4694837632392099</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>92</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>0.94366674704970999</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>94</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>2.4768911793682902</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>96</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>2.3959028132729498</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>98</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>1.8706177260715999</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>100</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>2.3245743528273999</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>102</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>2.1121914732523699</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>104</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>2.1554025895855302</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>106</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>3.0608381959560398</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>108</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>3.78346133193899</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>110</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>2.3364928256685</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>112</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>2.53164788085083</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>114</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>2.0478169712932401</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>116</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>2.2382089719519098</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="19" t="s">
         <v>24</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>2.4527379385311798</v>
       </c>
     </row>
-    <row r="62" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="27" t="s">
         <v>24</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>2.3136583798521602</v>
       </c>
     </row>
-    <row r="63" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="27" t="s">
         <v>24</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>0.55579199382750999</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
         <v>24</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>0.71195074341992004</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A65" s="34" t="s">
         <v>24</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>0.66514680606855003</v>
       </c>
     </row>
-    <row r="66" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="34" t="s">
         <v>24</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>0.88561014986780995</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A67" s="34" t="s">
         <v>24</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>2.3509876362642501</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A68" s="34" t="s">
         <v>24</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>2.2205366146742298</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A69" s="34" t="s">
         <v>24</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>2.7255150039488201</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A70" s="34" t="s">
         <v>24</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>2.9387741541088399</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A71" s="34" t="s">
         <v>24</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>2.4527379385311798</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A72" s="34" t="s">
         <v>24</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>2.4085590237630901</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A73" s="34" t="s">
         <v>24</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>2.54708711239264</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A74" s="34" t="s">
         <v>24</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>1.15686079420609</v>
       </c>
     </row>
-    <row r="75" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="34" t="s">
         <v>24</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>2.8325664030873798</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A76" s="34" t="s">
         <v>24</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>0.79451319868351</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A77" s="34" t="s">
         <v>24</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>0.60501717182502002</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A78" s="34" t="s">
         <v>24</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>-0.19155038514799999</v>
       </c>
     </row>
-    <row r="79" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="34" t="s">
         <v>24</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>0.22519654161757</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
         <v>24</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>2.1492824093570801</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A81" s="34" t="s">
         <v>24</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>0.84865977553409999</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A82" s="34" t="s">
         <v>24</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>2.3302649725489601</v>
       </c>
     </row>
-    <row r="83" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="34" t="s">
         <v>24</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>0.53087964327440995</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A84" s="34" t="s">
         <v>24</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>2.7114321910880301</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A85" s="34" t="s">
         <v>24</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>2.2744240031302501</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A86" s="34" t="s">
         <v>24</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>2.0992894177144699</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A87" s="34" t="s">
         <v>24</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>0.97622067514429001</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A88" s="34" t="s">
         <v>24</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>1.0904939256039901</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A89" s="34" t="s">
         <v>24</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>0.16569821570689</v>
       </c>
     </row>
-    <row r="90" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="34" t="s">
         <v>24</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>0.17545228623657</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A91" s="34" t="s">
         <v>24</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>2.7219061196761101</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A92" s="34" t="s">
         <v>24</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>1.2371394068225301</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A93" s="34" t="s">
         <v>24</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>1.38673439375814</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A94" s="34" t="s">
         <v>24</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>0.80123760009412004</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A95" s="34" t="s">
         <v>24</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>2.61249283401499</v>
       </c>
     </row>
-    <row r="96" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="34" t="s">
         <v>24</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>1.41343969054546</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A97" s="34" t="s">
         <v>24</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>2.5015746351210599</v>
       </c>
     </row>
-    <row r="98" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="34" t="s">
         <v>24</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>1.2798298233897001</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A99" s="44"/>
       <c r="B99" s="45"/>
       <c r="C99" s="46"/>
@@ -13820,7 +13820,7 @@
       <c r="AO99" s="46"/>
       <c r="AP99" s="46"/>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>156</v>
       </c>
@@ -13865,7 +13865,7 @@
       <c r="AO100" s="47"/>
       <c r="AP100" s="47"/>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>157</v>
       </c>
@@ -13910,7 +13910,7 @@
       <c r="AO101" s="47"/>
       <c r="AP101" s="47"/>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>158</v>
       </c>
@@ -13955,7 +13955,7 @@
       <c r="AO102" s="47"/>
       <c r="AP102" s="47"/>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>159</v>
       </c>
@@ -14000,7 +14000,7 @@
       <c r="AO103" s="47"/>
       <c r="AP103" s="47"/>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>160</v>
       </c>
@@ -14045,7 +14045,7 @@
       <c r="AO104" s="47"/>
       <c r="AP104" s="47"/>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>161</v>
       </c>
@@ -14090,7 +14090,7 @@
       <c r="AO105" s="47"/>
       <c r="AP105" s="47"/>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C106" s="47"/>
       <c r="D106" s="47"/>
       <c r="E106" s="47"/>
@@ -14132,7 +14132,7 @@
       <c r="AO106" s="47"/>
       <c r="AP106" s="47"/>
     </row>
-    <row r="107" spans="1:42" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="48" t="s">
         <v>162</v>
       </c>
@@ -14177,7 +14177,7 @@
       <c r="AO107" s="47"/>
       <c r="AP107" s="47"/>
     </row>
-    <row r="108" spans="1:42" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="48"/>
       <c r="C108" s="47"/>
       <c r="D108" s="47"/>
@@ -14220,7 +14220,7 @@
       <c r="AO108" s="47"/>
       <c r="AP108" s="47"/>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>165</v>
       </c>
@@ -14265,7 +14265,7 @@
       <c r="AO109" s="47"/>
       <c r="AP109" s="47"/>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>166</v>
       </c>
@@ -14310,7 +14310,7 @@
       <c r="AO110" s="47"/>
       <c r="AP110" s="47"/>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>167</v>
       </c>
@@ -14355,7 +14355,7 @@
       <c r="AO111" s="47"/>
       <c r="AP111" s="47"/>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:42" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>163</v>
       </c>
@@ -14400,7 +14400,7 @@
       <c r="AO112" s="47"/>
       <c r="AP112" s="47"/>
     </row>
-    <row r="113" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>164</v>
       </c>
@@ -14445,7 +14445,7 @@
       <c r="AO113" s="47"/>
       <c r="AP113" s="47"/>
     </row>
-    <row r="114" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="47"/>
       <c r="D114" s="47"/>
@@ -14489,12 +14489,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7B88E05A-74D2-4D32-AA3A-B157BC4416CC}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BE7B363F-C0E0-4222-B2D2-69A925EE097D}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{49A9FD79-0413-4891-A30B-A5B544383109}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{60BF7C3C-2AFE-4D06-8298-68A2B6F27727}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{880C6D42-0749-4FA3-9D2C-4DC3E55B31C9}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{5F1ED21F-4D3B-43D0-A9C4-DE8BC153178A}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{64D23836-ED29-4F33-A502-04810B9EB0E1}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6D4901AD-17E7-495C-98A7-1F0103FCDF8C}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{21E94961-9B2B-4F20-A717-92F0C46E16FB}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{6B00A860-2A6D-4F8B-966E-B8E0932E25ED}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{0818B345-52CE-41A2-B9C7-706967F1262E}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{8C479ED3-C60F-464E-BAD4-8CFCD86BA676}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId7"/>
